--- a/DIOGO.xlsx
+++ b/DIOGO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diogo\prog_linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F3D97-B313-439D-B086-B4EFA3BC38ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F955F-3019-4389-9697-BE7CE212A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Relatório de Sensibilidade 1" sheetId="3" r:id="rId1"/>
+    <sheet name="Relatório de Sensibilidade" sheetId="6" r:id="rId1"/>
     <sheet name="Custos de transporte" sheetId="5" r:id="rId2"/>
     <sheet name="Transporte" sheetId="4" r:id="rId3"/>
     <sheet name="Solver" sheetId="2" r:id="rId4"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
   <si>
     <t>INDUTOR</t>
   </si>
@@ -155,12 +155,6 @@
     <t>Microsoft Excel 16.0 Relatório de Sensibilidade</t>
   </si>
   <si>
-    <t>Planilha: [DIOGO.xlsx]Planilha2</t>
-  </si>
-  <si>
-    <t>Relatório Criado: 09/06/2023 15:03:07</t>
-  </si>
-  <si>
     <t>Células Variáveis</t>
   </si>
   <si>
@@ -378,15 +372,100 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Araçatuba</t>
+  </si>
+  <si>
+    <t>Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Rota 1:</t>
+  </si>
+  <si>
+    <t>Prudente - Araçatuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prudente - Campinas</t>
+  </si>
+  <si>
+    <t>Rota 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rota 2: </t>
+  </si>
+  <si>
+    <t>Prudente - Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>1 h 52 m</t>
+  </si>
+  <si>
+    <t>Distância</t>
+  </si>
+  <si>
+    <t>174 km</t>
+  </si>
+  <si>
+    <t>Pedágio</t>
+  </si>
+  <si>
+    <t>Pedágio por eixo</t>
+  </si>
+  <si>
+    <t>Combustível</t>
+  </si>
+  <si>
+    <t>5 h 22 m</t>
+  </si>
+  <si>
+    <t>536 km</t>
+  </si>
+  <si>
+    <t>4 h 58 m</t>
+  </si>
+  <si>
+    <t>436 km</t>
+  </si>
+  <si>
+    <t>Avaré - Araçatuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avaré - Campinas</t>
+  </si>
+  <si>
+    <t>Avaré - Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Londrina - Araçatuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Londrina - Campinas</t>
+  </si>
+  <si>
+    <t>Londrina - Ponta Grossa</t>
+  </si>
+  <si>
+    <t>Planilha: [DIOGO.xlsx]Solver</t>
+  </si>
+  <si>
+    <t>Relatório Criado: 09/06/2023 16:06:38</t>
+  </si>
+  <si>
+    <t>Fórmula LEE abaixo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -875,9 +954,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -910,28 +989,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -940,24 +998,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -977,68 +1018,109 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,7 +1196,9 @@
     <tableColumn id="7" xr3:uid="{C2835E1C-ACCE-47D8-90C7-ADCD298AE9A7}" name="ALTO FALANTE 12 BASS 1K6 2+2 OHMS" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{68DC3BEA-EBA9-4EF3-A91E-F1D336E4046B}" name="ALTO FALANTE 5 HD 250S 4 OHMS" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{DE3D6E04-8441-4A51-BE75-BAEECF850EEA}" name="ALTO FALANTE 12 ML 570S 4 OHMS" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{40FBF7D7-9DCB-4874-B358-08346A19DBD3}" name="LEE" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{40FBF7D7-9DCB-4874-B358-08346A19DBD3}" name="LEE" dataDxfId="1">
+      <calculatedColumnFormula>(C7*$C$28)+(D7*$D$28)+(E7*$E$28)+(F7*$F$28)+(G7*$G$28)+(H7*$H$28)+(I7*$I$28)+(J7*$J$28)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="11" xr3:uid="{8EEBF384-E6C4-47AE-ADE4-4D8B4952AC96}" name="LDE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1417,12 +1501,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB137E-0B12-405B-9FAC-1D4B1FFA2687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B43A8C5-0D8B-4EB4-8A16-95940803009D}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1436,548 +1518,548 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
+      <c r="A2" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>30</v>
+      <c r="A3" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="D8" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="66">
+        <v>1230.2707958864955</v>
+      </c>
+      <c r="E9" s="66">
+        <v>0</v>
+      </c>
+      <c r="F9" s="66">
+        <v>117.9</v>
+      </c>
+      <c r="G9" s="66">
+        <v>43.402953874858866</v>
+      </c>
+      <c r="H9" s="66">
+        <v>2.717054482007903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="18">
-        <v>1230.2707958864955</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>117.9</v>
-      </c>
-      <c r="G9" s="18">
-        <v>43.402953874858866</v>
-      </c>
-      <c r="H9" s="18">
-        <v>2.717054482007903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="D10" s="66">
+        <v>39.458408227008931</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0</v>
+      </c>
+      <c r="F10" s="66">
+        <v>144.9</v>
+      </c>
+      <c r="G10" s="66">
+        <v>3.937848679131299</v>
+      </c>
+      <c r="H10" s="66">
+        <v>21.701476937429433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C11" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="18">
-        <v>39.458408227008931</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>144.9</v>
-      </c>
-      <c r="G10" s="18">
-        <v>3.937848679131299</v>
-      </c>
-      <c r="H10" s="18">
-        <v>21.701476937429433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="D11" s="66">
+        <v>0</v>
+      </c>
+      <c r="E11" s="66">
+        <v>-21.268835489288954</v>
+      </c>
+      <c r="F11" s="66">
+        <v>170.90000000000003</v>
+      </c>
+      <c r="G11" s="66">
+        <v>21.268835489288954</v>
+      </c>
+      <c r="H11" s="66">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>-21.268835489288954</v>
-      </c>
-      <c r="F11" s="18">
-        <v>170.90000000000003</v>
-      </c>
-      <c r="G11" s="18">
-        <v>21.268835489288954</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="D12" s="66">
+        <v>0</v>
+      </c>
+      <c r="E12" s="66">
+        <v>-13.743795267701975</v>
+      </c>
+      <c r="F12" s="66">
+        <v>130.89999999999998</v>
+      </c>
+      <c r="G12" s="66">
+        <v>13.743795267701975</v>
+      </c>
+      <c r="H12" s="66">
         <v>1E+30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C13" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>-13.743795267701975</v>
-      </c>
-      <c r="F12" s="18">
-        <v>130.89999999999998</v>
-      </c>
-      <c r="G12" s="18">
-        <v>13.743795267701975</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="D13" s="66">
+        <v>91.283849485811942</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0</v>
+      </c>
+      <c r="F13" s="66">
+        <v>217.89999999999998</v>
+      </c>
+      <c r="G13" s="66">
+        <v>70.114025301325213</v>
+      </c>
+      <c r="H13" s="66">
+        <v>16.002357000332466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="66">
+        <v>3471.7319346632494</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
+      <c r="F14" s="66">
+        <v>243.90000000000009</v>
+      </c>
+      <c r="G14" s="66">
+        <v>112.93428571428571</v>
+      </c>
+      <c r="H14" s="66">
+        <v>5.8477414525915128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="66">
+        <v>0</v>
+      </c>
+      <c r="E15" s="66">
+        <v>-6.4460076023218349</v>
+      </c>
+      <c r="F15" s="66">
+        <v>225.90000000000009</v>
+      </c>
+      <c r="G15" s="66">
+        <v>6.4460076023218349</v>
+      </c>
+      <c r="H15" s="66">
         <v>1E+30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="18">
-        <v>91.283849485811942</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>217.89999999999998</v>
-      </c>
-      <c r="G13" s="18">
-        <v>70.114025301325213</v>
-      </c>
-      <c r="H13" s="18">
-        <v>16.002357000332466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="18">
-        <v>3471.7319346632494</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>243.90000000000009</v>
-      </c>
-      <c r="G14" s="18">
-        <v>112.93428571428571</v>
-      </c>
-      <c r="H14" s="18">
-        <v>5.8477414525915128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>-6.4460076023218349</v>
-      </c>
-      <c r="F15" s="18">
-        <v>225.90000000000009</v>
-      </c>
-      <c r="G15" s="18">
-        <v>6.4460076023218349</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1E+30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="D16" s="67">
         <v>1528.2680653367509</v>
       </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
+      <c r="E16" s="67">
+        <v>0</v>
+      </c>
+      <c r="F16" s="67">
         <v>389.90000000000009</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="67">
         <v>58.680675281367712</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="67">
         <v>112.93428571428571</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="69" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F20" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="66">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="66">
+        <v>0</v>
+      </c>
+      <c r="F21" s="66">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="66">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="66">
         <v>5000</v>
       </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E22" s="66">
+        <v>0</v>
+      </c>
+      <c r="F22" s="66">
         <v>5000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G22" s="66">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="H22" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D23" s="66">
         <v>5000</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="E23" s="66">
+        <v>50.758449774582267</v>
+      </c>
+      <c r="F23" s="66">
         <v>5000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G23" s="66">
+        <v>0</v>
+      </c>
+      <c r="H23" s="66">
+        <v>998.7884417906439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="66">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="66">
+        <v>2.2686312873854364</v>
+      </c>
+      <c r="F24" s="66">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="66">
+        <v>147.06980626455231</v>
+      </c>
+      <c r="H24" s="66">
+        <v>643.89341536415031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="66">
+        <v>1230.2707958864955</v>
+      </c>
+      <c r="E25" s="66">
+        <v>0</v>
+      </c>
+      <c r="F25" s="66">
+        <v>2000</v>
+      </c>
+      <c r="G25" s="66">
         <v>1E+30</v>
       </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="H25" s="66">
+        <v>769.72920411350447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="66">
+        <v>495.87765565606867</v>
+      </c>
+      <c r="E26" s="66">
+        <v>0</v>
+      </c>
+      <c r="F26" s="66">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="66">
+        <v>1E+30</v>
+      </c>
+      <c r="H26" s="66">
+        <v>1504.1223443439312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="66">
+        <v>1452.2969030851284</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0</v>
+      </c>
+      <c r="F27" s="66">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="66">
+        <v>1E+30</v>
+      </c>
+      <c r="H27" s="66">
+        <v>547.70309691487159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="66">
         <v>5000</v>
       </c>
-      <c r="E23" s="18">
-        <v>50.758449774582267</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E28" s="66">
+        <v>1.0370314111441841</v>
+      </c>
+      <c r="F28" s="66">
         <v>5000</v>
       </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>998.7884417906439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="18">
-        <v>2.2686312873854364</v>
-      </c>
-      <c r="F24" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>147.06980626455231</v>
-      </c>
-      <c r="H24" s="18">
-        <v>643.89341536415031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1230.2707958864955</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G25" s="18">
+      <c r="G28" s="66">
+        <v>149.83272352947773</v>
+      </c>
+      <c r="H28" s="66">
+        <v>3223.3476673177429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="66">
+        <v>6844.5236762235909</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0</v>
+      </c>
+      <c r="F29" s="66">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="66">
         <v>1E+30</v>
       </c>
-      <c r="H25" s="18">
-        <v>769.72920411350447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="18">
-        <v>495.87765565606867</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1E+30</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1504.1223443439312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1452.2969030851284</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1E+30</v>
-      </c>
-      <c r="H27" s="18">
-        <v>547.70309691487159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="18">
-        <v>5000</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1.0370314111441841</v>
-      </c>
-      <c r="F28" s="18">
-        <v>5000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>149.83272352947773</v>
-      </c>
-      <c r="H28" s="18">
-        <v>3223.3476673177429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="H29" s="66">
+        <v>3155.4763237764082</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="18">
-        <v>6844.5236762235909</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>10000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1E+30</v>
-      </c>
-      <c r="H29" s="18">
-        <v>3155.4763237764082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="D30" s="66">
+        <v>10000000</v>
+      </c>
+      <c r="E30" s="66">
+        <v>2.4561797718321152E-2</v>
+      </c>
+      <c r="F30" s="66">
+        <v>10000000</v>
+      </c>
+      <c r="G30" s="66">
+        <v>874669.28036510025</v>
+      </c>
+      <c r="H30" s="66">
+        <v>34863.31684457176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="18">
-        <v>10000000</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2.4561797718321152E-2</v>
-      </c>
-      <c r="F30" s="18">
-        <v>10000000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>874669.28036510025</v>
-      </c>
-      <c r="H30" s="18">
-        <v>34863.31684457176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="19">
+      <c r="D31" s="67">
         <v>9480000</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="67">
         <v>0.11647169755723852</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="67">
         <v>9480000</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="67">
         <v>83693.750000000015</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="67">
         <v>1481852.380952379</v>
       </c>
     </row>
@@ -1988,90 +2070,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C1339A-A3A0-4E52-B241-B8737D412311}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="64" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="64" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G4" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="G5" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="24" t="s">
+      <c r="E6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="19">
+        <v>14</v>
+      </c>
+      <c r="D7" s="18">
+        <v>24</v>
+      </c>
+      <c r="E7" s="18">
+        <v>9</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="65">
+        <v>69.2</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="65">
+        <v>605.4</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="20">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16">
+        <v>6</v>
+      </c>
+      <c r="E8" s="16">
+        <v>21</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="65">
+        <v>11.53</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="65">
+        <v>100.9</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="28">
-        <v>14</v>
-      </c>
-      <c r="D7" s="27">
-        <v>24</v>
-      </c>
-      <c r="E7" s="27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="29">
-        <v>13</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C9" s="20">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="29">
-        <v>19</v>
-      </c>
-      <c r="D9" s="25">
-        <v>28</v>
-      </c>
-      <c r="E9" s="25">
-        <v>6</v>
+      <c r="G9" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="65">
+        <v>93.23</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="65">
+        <v>286.77999999999997</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="65">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="65">
+        <v>162.43</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="65">
+        <v>892.18</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="65">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="64" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2111,608 +2368,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="29">
+        <v>18094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="44" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="45">
+        <v>470</v>
+      </c>
+      <c r="D7" s="31">
+        <v>14</v>
+      </c>
+      <c r="E7" s="47">
+        <v>114</v>
+      </c>
+      <c r="F7" s="31">
+        <v>24</v>
+      </c>
+      <c r="G7" s="47">
+        <v>116</v>
+      </c>
+      <c r="H7" s="31">
+        <v>9</v>
+      </c>
+      <c r="I7" s="27">
+        <v>700</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="56"/>
+      <c r="C8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>13</v>
+      </c>
+      <c r="E9" s="49">
+        <v>355</v>
+      </c>
+      <c r="F9" s="32">
+        <v>6</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>21</v>
+      </c>
+      <c r="I9" s="27">
+        <v>355</v>
+      </c>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="56"/>
+      <c r="C10" s="46"/>
+      <c r="E10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="50">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>19</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>28</v>
+      </c>
+      <c r="G11" s="49">
+        <v>354</v>
+      </c>
+      <c r="H11" s="32">
+        <v>6</v>
+      </c>
+      <c r="I11" s="27">
+        <v>354</v>
+      </c>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="56"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="26">
+        <v>470</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26">
+        <v>469</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26">
+        <v>470</v>
+      </c>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="O14" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="45">
-        <v>18094</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="P14" s="33">
+        <v>17345.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="51" t="s">
+      <c r="P15" s="33">
+        <v>14614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="29">
+        <v>14614</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="33">
+        <v>2731.7099999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51" t="s">
+      <c r="H20" s="59"/>
+      <c r="K20" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="C21" s="49">
+        <v>470</v>
+      </c>
+      <c r="D21" s="32">
+        <v>14</v>
+      </c>
+      <c r="E21" s="49">
+        <v>114</v>
+      </c>
+      <c r="F21" s="32">
+        <v>24</v>
+      </c>
+      <c r="G21" s="49">
+        <v>116</v>
+      </c>
+      <c r="H21" s="32">
+        <v>9</v>
+      </c>
+      <c r="I21" s="27">
+        <v>700</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="38">
+        <v>5</v>
+      </c>
+      <c r="L21" s="38">
+        <v>5</v>
+      </c>
+      <c r="M21" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="51"/>
+      <c r="C22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="53" t="s">
+      <c r="C23" s="49">
+        <v>0</v>
+      </c>
+      <c r="D23" s="32">
+        <v>13</v>
+      </c>
+      <c r="E23" s="49">
+        <v>355</v>
+      </c>
+      <c r="F23" s="32">
+        <v>6</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
+        <v>21</v>
+      </c>
+      <c r="I23" s="27">
+        <v>355</v>
+      </c>
+      <c r="J23" s="52"/>
+      <c r="K23" s="38">
+        <v>7</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C25" s="49">
+        <v>0</v>
+      </c>
+      <c r="D25" s="32">
+        <v>19</v>
+      </c>
+      <c r="E25" s="49">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32">
+        <v>28</v>
+      </c>
+      <c r="G25" s="49">
+        <v>354</v>
+      </c>
+      <c r="H25" s="32">
+        <v>6</v>
+      </c>
+      <c r="I25" s="27">
+        <v>354</v>
+      </c>
+      <c r="J25" s="52"/>
+      <c r="K25" s="38">
+        <v>13</v>
+      </c>
+      <c r="L25" s="38">
+        <v>13</v>
+      </c>
+      <c r="M25" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="51"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
+      <c r="C27" s="26">
         <v>470</v>
       </c>
-      <c r="D7" s="47">
-        <v>14</v>
-      </c>
-      <c r="E7" s="55">
-        <v>114</v>
-      </c>
-      <c r="F7" s="47">
-        <v>24</v>
-      </c>
-      <c r="G7" s="55">
-        <v>116</v>
-      </c>
-      <c r="H7" s="47">
-        <v>9</v>
-      </c>
-      <c r="I7" s="43">
-        <v>700</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="64">
-        <v>0</v>
-      </c>
-      <c r="D9" s="48">
-        <v>13</v>
-      </c>
-      <c r="E9" s="57">
-        <v>355</v>
-      </c>
-      <c r="F9" s="48">
-        <v>6</v>
-      </c>
-      <c r="G9" s="57">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48">
-        <v>21</v>
-      </c>
-      <c r="I9" s="43">
-        <v>355</v>
-      </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="53" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26">
+        <v>469</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26">
+        <v>470</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="40">
+        <v>1</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42">
+        <v>18</v>
+      </c>
+      <c r="F29" s="43"/>
+      <c r="G29" s="42">
+        <v>3</v>
+      </c>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="44"/>
+      <c r="C30" s="40">
+        <v>5</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42">
+        <v>4</v>
+      </c>
+      <c r="F30" s="43"/>
+      <c r="G30" s="42">
+        <v>3</v>
+      </c>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="64">
-        <v>0</v>
-      </c>
-      <c r="D11" s="48">
-        <v>19</v>
-      </c>
-      <c r="E11" s="57">
-        <v>0</v>
-      </c>
-      <c r="F11" s="48">
-        <v>28</v>
-      </c>
-      <c r="G11" s="57">
-        <v>354</v>
-      </c>
-      <c r="H11" s="48">
-        <v>6</v>
-      </c>
-      <c r="I11" s="43">
-        <v>354</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="42">
-        <v>470</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42">
-        <v>469</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42">
-        <v>470</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="P14" s="49">
-        <v>17345.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="49">
+      <c r="C33" s="29">
         <v>14614</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="45">
-        <v>14614</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="49">
-        <v>2731.7099999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="57">
-        <v>470</v>
-      </c>
-      <c r="D21" s="48">
-        <v>14</v>
-      </c>
-      <c r="E21" s="57">
-        <v>114</v>
-      </c>
-      <c r="F21" s="48">
-        <v>24</v>
-      </c>
-      <c r="G21" s="57">
-        <v>116</v>
-      </c>
-      <c r="H21" s="48">
-        <v>9</v>
-      </c>
-      <c r="I21" s="43">
-        <v>700</v>
-      </c>
-      <c r="J21" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="65">
-        <v>5</v>
-      </c>
-      <c r="L21" s="65">
-        <v>5</v>
-      </c>
-      <c r="M21" s="65">
-        <v>5</v>
-      </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="57">
-        <v>0</v>
-      </c>
-      <c r="D23" s="48">
-        <v>13</v>
-      </c>
-      <c r="E23" s="57">
-        <v>355</v>
-      </c>
-      <c r="F23" s="48">
-        <v>6</v>
-      </c>
-      <c r="G23" s="57">
-        <v>0</v>
-      </c>
-      <c r="H23" s="48">
-        <v>21</v>
-      </c>
-      <c r="I23" s="43">
-        <v>355</v>
-      </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="65">
-        <v>7</v>
-      </c>
-      <c r="L23" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="M23" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="57">
-        <v>0</v>
-      </c>
-      <c r="D25" s="48">
-        <v>19</v>
-      </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="48">
-        <v>28</v>
-      </c>
-      <c r="G25" s="57">
-        <v>354</v>
-      </c>
-      <c r="H25" s="48">
-        <v>6</v>
-      </c>
-      <c r="I25" s="43">
-        <v>354</v>
-      </c>
-      <c r="J25" s="59"/>
-      <c r="K25" s="65">
-        <v>13</v>
-      </c>
-      <c r="L25" s="65">
-        <v>13</v>
-      </c>
-      <c r="M25" s="65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="46"/>
-      <c r="C27" s="42">
-        <v>470</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42">
-        <v>469</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42">
-        <v>470</v>
-      </c>
-      <c r="H27" s="42"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="67">
-        <v>1</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69">
-        <v>18</v>
-      </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="69">
-        <v>3</v>
-      </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="61"/>
-      <c r="C30" s="67">
-        <v>5</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69">
-        <v>4</v>
-      </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="69">
-        <v>3</v>
-      </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="45">
-        <v>14614</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
@@ -2726,30 +2833,29 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="J21:J26"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="E23:E24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J21:J26"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J7:J12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2757,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD623A7-0304-430D-B3EA-C6551D0CC8A6}">
-  <dimension ref="B6:L29"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,6 +2877,17 @@
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>(C7*$C$28)+(D7*$D$28)+(E7*$E$28)+(F7*$F$28)+(G7*$G$28)+(H7*$H$28)+(I7*$I$28)+(J7*$J$28)</f>
+        <v>5000</v>
+      </c>
+    </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -3194,8 +3311,8 @@
       <c r="J17" s="2">
         <v>2506.9</v>
       </c>
-      <c r="K17" s="2">
-        <f>(C17*$C$28)+(D17*$D$28)+(E17*$E$28)+(F17*$F$28)+(G17*$G$28)+(H17*$H$28)+(I17*$I$28)+(J17*$J$28)</f>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
         <v>9480000</v>
       </c>
       <c r="L17" s="2">
@@ -3203,17 +3320,17 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3307,17 +3424,17 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3381,17 +3498,17 @@
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="62">
         <f>(C28*C22)+(D28*D22)+(E28*E22)+(F28*F22)+(G28*G22)+(H28*H22)+(I28*I22)+(J28*J22)</f>
         <v>1613284.3385292357</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DIOGO.xlsx
+++ b/DIOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diogo\prog_linear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\diogo\myprojs\prog_linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F955F-3019-4389-9697-BE7CE212A2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EC34E-100E-42B3-83B0-3DB55A75331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4815" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Sensibilidade" sheetId="6" r:id="rId1"/>
@@ -61,12 +61,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>INDUTOR</t>
   </si>
@@ -413,9 +424,6 @@
     <t>Pedágio</t>
   </si>
   <si>
-    <t>Pedágio por eixo</t>
-  </si>
-  <si>
     <t>Combustível</t>
   </si>
   <si>
@@ -456,6 +464,60 @@
   </si>
   <si>
     <t>Fórmula LEE abaixo</t>
+  </si>
+  <si>
+    <t>3 h 11 m</t>
+  </si>
+  <si>
+    <t>316 km</t>
+  </si>
+  <si>
+    <t>2 h 42 m</t>
+  </si>
+  <si>
+    <t>244 km</t>
+  </si>
+  <si>
+    <t>3 h 45 m</t>
+  </si>
+  <si>
+    <t>331 km</t>
+  </si>
+  <si>
+    <t>3 h 31 m</t>
+  </si>
+  <si>
+    <t>323 km</t>
+  </si>
+  <si>
+    <t>5 h 27 m</t>
+  </si>
+  <si>
+    <t>514 km</t>
+  </si>
+  <si>
+    <t>3 h 13 m</t>
+  </si>
+  <si>
+    <t>275 km</t>
+  </si>
+  <si>
+    <t>Rota 4:</t>
+  </si>
+  <si>
+    <t>Rota 5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rota 6: </t>
+  </si>
+  <si>
+    <t>Rota 7:</t>
+  </si>
+  <si>
+    <t>Rota 8:</t>
+  </si>
+  <si>
+    <t>Rota 9:</t>
   </si>
 </sst>
 </file>
@@ -1019,6 +1081,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1031,6 +1107,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,57 +1173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,20 +1183,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1524,12 +1586,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1538,228 +1600,228 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="36">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E9" s="66">
-        <v>0</v>
-      </c>
-      <c r="F9" s="66">
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
         <v>117.9</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="36">
         <v>43.402953874858866</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="36">
         <v>2.717054482007903</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="36">
         <v>39.458408227008931</v>
       </c>
-      <c r="E10" s="66">
-        <v>0</v>
-      </c>
-      <c r="F10" s="66">
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
         <v>144.9</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="36">
         <v>3.937848679131299</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="36">
         <v>21.701476937429433</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="66">
-        <v>0</v>
-      </c>
-      <c r="E11" s="66">
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
         <v>-21.268835489288954</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="36">
         <v>170.90000000000003</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="36">
         <v>21.268835489288954</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="36">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="66">
-        <v>0</v>
-      </c>
-      <c r="E12" s="66">
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
         <v>-13.743795267701975</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="36">
         <v>130.89999999999998</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="36">
         <v>13.743795267701975</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="36">
         <v>1E+30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="36">
         <v>91.283849485811942</v>
       </c>
-      <c r="E13" s="66">
-        <v>0</v>
-      </c>
-      <c r="F13" s="66">
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
         <v>217.89999999999998</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="36">
         <v>70.114025301325213</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="36">
         <v>16.002357000332466</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="36">
         <v>3471.7319346632494</v>
       </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="66">
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="36">
         <v>243.90000000000009</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="36">
         <v>112.93428571428571</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="36">
         <v>5.8477414525915128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="66">
-        <v>0</v>
-      </c>
-      <c r="E15" s="66">
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
         <v>-6.4460076023218349</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="36">
         <v>225.90000000000009</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="36">
         <v>6.4460076023218349</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="36">
         <v>1E+30</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="37">
         <v>1528.2680653367509</v>
       </c>
-      <c r="E16" s="67">
-        <v>0</v>
-      </c>
-      <c r="F16" s="67">
+      <c r="E16" s="37">
+        <v>0</v>
+      </c>
+      <c r="F16" s="37">
         <v>389.90000000000009</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="37">
         <v>58.680675281367712</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="37">
         <v>112.93428571428571</v>
       </c>
     </row>
@@ -1769,297 +1831,297 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="39" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="36">
         <v>5000</v>
       </c>
-      <c r="E21" s="66">
-        <v>0</v>
-      </c>
-      <c r="F21" s="66">
+      <c r="E21" s="36">
+        <v>0</v>
+      </c>
+      <c r="F21" s="36">
         <v>5000</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="36">
         <v>5000</v>
       </c>
-      <c r="E22" s="66">
-        <v>0</v>
-      </c>
-      <c r="F22" s="66">
+      <c r="E22" s="36">
+        <v>0</v>
+      </c>
+      <c r="F22" s="36">
         <v>5000</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="36">
         <v>5000</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="36">
         <v>50.758449774582267</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="36">
         <v>5000</v>
       </c>
-      <c r="G23" s="66">
-        <v>0</v>
-      </c>
-      <c r="H23" s="66">
+      <c r="G23" s="36">
+        <v>0</v>
+      </c>
+      <c r="H23" s="36">
         <v>998.7884417906439</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="36">
         <v>2000</v>
       </c>
-      <c r="E24" s="66">
+      <c r="E24" s="36">
         <v>2.2686312873854364</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="36">
         <v>2000</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="36">
         <v>147.06980626455231</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="36">
         <v>643.89341536415031</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="36">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E25" s="66">
-        <v>0</v>
-      </c>
-      <c r="F25" s="66">
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
         <v>2000</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="36">
         <v>769.72920411350447</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="36">
         <v>495.87765565606867</v>
       </c>
-      <c r="E26" s="66">
-        <v>0</v>
-      </c>
-      <c r="F26" s="66">
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
         <v>2000</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="36">
         <v>1504.1223443439312</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="36">
         <v>1452.2969030851284</v>
       </c>
-      <c r="E27" s="66">
-        <v>0</v>
-      </c>
-      <c r="F27" s="66">
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="F27" s="36">
         <v>2000</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="36">
         <v>547.70309691487159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="36">
         <v>5000</v>
       </c>
-      <c r="E28" s="66">
+      <c r="E28" s="36">
         <v>1.0370314111441841</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="36">
         <v>5000</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="36">
         <v>149.83272352947773</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="36">
         <v>3223.3476673177429</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="36">
         <v>6844.5236762235909</v>
       </c>
-      <c r="E29" s="66">
-        <v>0</v>
-      </c>
-      <c r="F29" s="66">
+      <c r="E29" s="36">
+        <v>0</v>
+      </c>
+      <c r="F29" s="36">
         <v>10000</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="36">
         <v>1E+30</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="36">
         <v>3155.4763237764082</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="36">
         <v>10000000</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="36">
         <v>2.4561797718321152E-2</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="36">
         <v>10000000</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="36">
         <v>874669.28036510025</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="36">
         <v>34863.31684457176</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="67">
+      <c r="D31" s="37">
         <v>9480000</v>
       </c>
-      <c r="E31" s="67">
+      <c r="E31" s="37">
         <v>0.11647169755723852</v>
       </c>
-      <c r="F31" s="67">
+      <c r="F31" s="37">
         <v>9480000</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="37">
         <v>83693.750000000015</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="37">
         <v>1481852.380952379</v>
       </c>
     </row>
@@ -2070,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C1339A-A3A0-4E52-B241-B8737D412311}">
-  <dimension ref="B2:N22"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,71 +2144,71 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="64" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="G5" s="64" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="G5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="K5" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="64" t="s">
+      <c r="K5" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="64" t="s">
-        <v>119</v>
+      <c r="N5" s="34" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15" t="s">
         <v>102</v>
       </c>
@@ -2156,23 +2218,23 @@
       <c r="E6" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="64" t="s">
+      <c r="K6" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="64" t="s">
-        <v>120</v>
+      <c r="N6" s="34" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -2188,22 +2250,22 @@
       <c r="E7" s="18">
         <v>9</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="65">
-        <v>69.2</v>
-      </c>
-      <c r="J7" s="64" t="s">
+      <c r="H7" s="35">
+        <v>11.5</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="65">
-        <v>605.4</v>
-      </c>
-      <c r="M7" s="64" t="s">
+      <c r="K7" s="35">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="65">
+      <c r="N7" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2220,23 +2282,23 @@
       <c r="E8" s="16">
         <v>21</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="65">
-        <v>11.53</v>
-      </c>
-      <c r="J8" s="64" t="s">
+      <c r="H8" s="35">
+        <v>94.56</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="65">
-        <v>100.9</v>
-      </c>
-      <c r="M8" s="64" t="s">
+      <c r="K8" s="35">
+        <v>291.13</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="65">
-        <v>0</v>
+      <c r="N8" s="35">
+        <v>231.45</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -2252,83 +2314,263 @@
       <c r="E9" s="16">
         <v>6</v>
       </c>
-      <c r="G9" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="65">
-        <v>93.23</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="65">
-        <v>286.77999999999997</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="N9" s="65">
-        <v>233.64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="64" t="s">
+      <c r="G9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="65">
-        <v>162.43</v>
-      </c>
-      <c r="J10" s="64" t="s">
+      <c r="H9" s="35">
+        <v>106.06</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="65">
-        <v>892.18</v>
-      </c>
-      <c r="M10" s="64" t="s">
+      <c r="K9" s="35">
+        <v>422.93</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="65">
-        <v>233.64</v>
+      <c r="N9" s="35">
+        <v>231.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="64" t="s">
+      <c r="G13" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="35">
+        <v>60.6</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="35">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="35">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="35">
+        <v>169.21</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="35">
+        <v>136</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="35">
+        <v>175.72</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="35">
+        <v>229.81</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="35">
+        <v>207.6</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="35">
+        <v>189.52</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>123</v>
       </c>
+      <c r="J20" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="N22" s="64" t="s">
-        <v>126</v>
+      <c r="G22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="35">
+        <v>11.5</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23" s="35">
+        <v>91.5</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N23" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="35">
+        <v>174.85</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="35">
+        <v>279.57</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="35">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="35">
+        <v>186.35</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="35">
+        <v>371.07</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="N25" s="35">
+        <v>144.88</v>
       </c>
     </row>
   </sheetData>
@@ -2368,14 +2610,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -2389,36 +2631,36 @@
       <c r="A6" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="60"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="55">
         <v>470</v>
       </c>
       <c r="D7" s="31">
         <v>14</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="51">
         <v>114</v>
       </c>
       <c r="F7" s="31">
         <v>24</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="51">
         <v>116</v>
       </c>
       <c r="H7" s="31">
@@ -2427,36 +2669,36 @@
       <c r="I7" s="27">
         <v>700</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="46"/>
-      <c r="E8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="56"/>
+      <c r="E8" s="52"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="24"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="57">
         <v>0</v>
       </c>
       <c r="D9" s="32">
         <v>13</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="53">
         <v>355</v>
       </c>
       <c r="F9" s="32">
         <v>6</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="53">
         <v>0</v>
       </c>
       <c r="H9" s="32">
@@ -2465,34 +2707,34 @@
       <c r="I9" s="27">
         <v>355</v>
       </c>
-      <c r="J9" s="54"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
-      <c r="C10" s="46"/>
-      <c r="E10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="56"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="52"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="57">
         <v>0</v>
       </c>
       <c r="D11" s="32">
         <v>19</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="53">
         <v>0</v>
       </c>
       <c r="F11" s="32">
         <v>28</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="53">
         <v>354</v>
       </c>
       <c r="H11" s="32">
@@ -2501,18 +2743,18 @@
       <c r="I11" s="27">
         <v>354</v>
       </c>
-      <c r="J11" s="54"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="48"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="48"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="22"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="54"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -2530,14 +2772,14 @@
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
       <c r="O14" s="21" t="s">
         <v>96</v>
       </c>
@@ -2571,41 +2813,41 @@
       <c r="A20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58" t="s">
+      <c r="F20" s="46"/>
+      <c r="G20" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="59"/>
-      <c r="K20" s="57" t="s">
+      <c r="H20" s="46"/>
+      <c r="K20" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="53">
         <v>470</v>
       </c>
       <c r="D21" s="32">
         <v>14</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="53">
         <v>114</v>
       </c>
       <c r="F21" s="32">
         <v>24</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="53">
         <v>116</v>
       </c>
       <c r="H21" s="32">
@@ -2614,48 +2856,48 @@
       <c r="I21" s="27">
         <v>700</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="60">
         <v>5</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="60">
         <v>5</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="60">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="G22" s="48"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="53">
         <v>0</v>
       </c>
       <c r="D23" s="32">
         <v>13</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="53">
         <v>355</v>
       </c>
       <c r="F23" s="32">
         <v>6</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="53">
         <v>0</v>
       </c>
       <c r="H23" s="32">
@@ -2664,46 +2906,46 @@
       <c r="I23" s="27">
         <v>355</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="38">
+      <c r="J23" s="66"/>
+      <c r="K23" s="60">
         <v>7</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="60" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="53">
         <v>0</v>
       </c>
       <c r="D25" s="32">
         <v>19</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="53">
         <v>0</v>
       </c>
       <c r="F25" s="32">
         <v>28</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="53">
         <v>354</v>
       </c>
       <c r="H25" s="32">
@@ -2712,30 +2954,30 @@
       <c r="I25" s="27">
         <v>354</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="38">
+      <c r="J25" s="66"/>
+      <c r="K25" s="60">
         <v>13</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="60">
         <v>13</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="60" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="22"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="30"/>
@@ -2753,46 +2995,46 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="62">
         <v>1</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42">
+      <c r="D29" s="63"/>
+      <c r="E29" s="64">
         <v>18</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="42">
+      <c r="F29" s="65"/>
+      <c r="G29" s="64">
         <v>3</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="40">
+      <c r="B30" s="54"/>
+      <c r="C30" s="62">
         <v>5</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42">
+      <c r="D30" s="63"/>
+      <c r="E30" s="64">
         <v>4</v>
       </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="42">
+      <c r="F30" s="65"/>
+      <c r="G30" s="64">
         <v>3</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
@@ -2804,22 +3046,26 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J21:J26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
@@ -2836,26 +3082,22 @@
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J7:J12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2879,7 +3121,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3320,17 +3562,17 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3424,17 +3666,17 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3498,17 +3740,17 @@
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="68">
         <f>(C28*C22)+(D28*D22)+(E28*E22)+(F28*F22)+(G28*G22)+(H28*H22)+(I28*I22)+(J28*J22)</f>
         <v>1613284.3385292357</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DIOGO.xlsx
+++ b/DIOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\diogo\myprojs\prog_linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821EC34E-100E-42B3-83B0-3DB55A75331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E8BE6-2640-4EC7-BDF4-5A4CE7EF5426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Sensibilidade" sheetId="6" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
   <si>
     <t>INDUTOR</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Depósitos</t>
   </si>
   <si>
-    <t>Bauru</t>
-  </si>
-  <si>
     <t>Campinas</t>
   </si>
   <si>
@@ -352,12 +349,6 @@
     <t>Presidente Prudente</t>
   </si>
   <si>
-    <t>Sorocaba</t>
-  </si>
-  <si>
-    <t>Maringá</t>
-  </si>
-  <si>
     <t>Avaré</t>
   </si>
   <si>
@@ -518,6 +509,9 @@
   </si>
   <si>
     <t>Rota 9:</t>
+  </si>
+  <si>
+    <t>Custo/produto</t>
   </si>
 </sst>
 </file>
@@ -575,7 +569,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,8 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,75 +1105,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,6 +1177,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{DAF39087-F975-4261-B48F-75F325210FA3}"/>
@@ -1586,12 +1582,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1600,228 +1596,228 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34">
         <v>117.9</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>43.402953874858866</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <v>2.717054482007903</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>39.458408227008931</v>
       </c>
-      <c r="E10" s="36">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="E10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34">
         <v>144.9</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>3.937848679131299</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>21.701476937429433</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
         <v>-21.268835489288954</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>170.90000000000003</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>21.268835489288954</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
         <v>-13.743795267701975</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="34">
         <v>130.89999999999998</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="34">
         <v>13.743795267701975</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="34">
         <v>1E+30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <v>91.283849485811942</v>
       </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
         <v>217.89999999999998</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>70.114025301325213</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="34">
         <v>16.002357000332466</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>3471.7319346632494</v>
       </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
         <v>243.90000000000009</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>112.93428571428571</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="34">
         <v>5.8477414525915128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
         <v>-6.4460076023218349</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>225.90000000000009</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>6.4460076023218349</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>1E+30</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>1528.2680653367509</v>
       </c>
-      <c r="E16" s="37">
-        <v>0</v>
-      </c>
-      <c r="F16" s="37">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
         <v>389.90000000000009</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="35">
         <v>58.680675281367712</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="35">
         <v>112.93428571428571</v>
       </c>
     </row>
@@ -1831,297 +1827,297 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="36" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>5000</v>
       </c>
-      <c r="E21" s="36">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36">
+      <c r="E21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
         <v>5000</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>5000</v>
       </c>
-      <c r="E22" s="36">
-        <v>0</v>
-      </c>
-      <c r="F22" s="36">
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
         <v>5000</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <v>5000</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="34">
         <v>50.758449774582267</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>5000</v>
       </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-      <c r="H23" s="36">
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
         <v>998.7884417906439</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <v>2000</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="34">
         <v>2.2686312873854364</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <v>2000</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="34">
         <v>147.06980626455231</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="34">
         <v>643.89341536415031</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E25" s="36">
-        <v>0</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="34">
         <v>2000</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="34">
         <v>769.72920411350447</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="34">
         <v>495.87765565606867</v>
       </c>
-      <c r="E26" s="36">
-        <v>0</v>
-      </c>
-      <c r="F26" s="36">
+      <c r="E26" s="34">
+        <v>0</v>
+      </c>
+      <c r="F26" s="34">
         <v>2000</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="34">
         <v>1504.1223443439312</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="34">
         <v>1452.2969030851284</v>
       </c>
-      <c r="E27" s="36">
-        <v>0</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
         <v>2000</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="34">
         <v>547.70309691487159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="34">
         <v>5000</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="34">
         <v>1.0370314111441841</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="34">
         <v>5000</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="34">
         <v>149.83272352947773</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="34">
         <v>3223.3476673177429</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="34">
         <v>6844.5236762235909</v>
       </c>
-      <c r="E29" s="36">
-        <v>0</v>
-      </c>
-      <c r="F29" s="36">
+      <c r="E29" s="34">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34">
         <v>10000</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="34">
         <v>1E+30</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="34">
         <v>3155.4763237764082</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="34">
         <v>10000000</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="34">
         <v>2.4561797718321152E-2</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="34">
         <v>10000000</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="34">
         <v>874669.28036510025</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="34">
         <v>34863.31684457176</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="35">
         <v>9480000</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="35">
         <v>0.11647169755723852</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="35">
         <v>9480000</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="35">
         <v>83693.750000000015</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="35">
         <v>1481852.380952379</v>
       </c>
     </row>
@@ -2132,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C1339A-A3A0-4E52-B241-B8737D412311}">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,433 +2140,502 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="K4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="N4" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="G5" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="K4" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="34" t="s">
+      <c r="H5" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="34" t="s">
+      <c r="J5" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="39"/>
+      <c r="C6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="G5" s="34" t="s">
+      <c r="H6" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="34" t="s">
+      <c r="J6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>116</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="41"/>
-      <c r="C6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="19">
-        <v>14</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="18">
-        <v>24</v>
+        <v>0.39</v>
       </c>
       <c r="E7" s="18">
-        <v>9</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="35">
+        <v>0.21</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="33">
         <v>11.5</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="K7" s="35">
+      <c r="J7" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="33">
         <v>131.80000000000001</v>
       </c>
-      <c r="M7" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="35">
+      <c r="M7" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="20">
-        <v>13</v>
+        <v>0.21</v>
       </c>
       <c r="D8" s="16">
-        <v>6</v>
+        <v>0.19</v>
       </c>
       <c r="E8" s="16">
-        <v>21</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="35">
+        <v>0.18</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="33">
         <v>94.56</v>
       </c>
-      <c r="J8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="J8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="33">
         <v>291.13</v>
       </c>
-      <c r="M8" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="35">
+      <c r="M8" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="33">
         <v>231.45</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="20">
-        <v>19</v>
+        <v>0.17</v>
       </c>
       <c r="D9" s="16">
-        <v>28</v>
+        <v>0.34</v>
       </c>
       <c r="E9" s="16">
-        <v>6</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="33">
         <v>106.06</v>
       </c>
-      <c r="J9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="35">
+      <c r="J9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="33">
         <v>422.93</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="35">
+      <c r="M9" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="33">
         <v>231.45</v>
       </c>
     </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="33">
+        <f>H9/(36*30)</f>
+        <v>9.820370370370371E-2</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="33">
+        <f>K9/(36*30)</f>
+        <v>0.39160185185185187</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="33">
+        <f>N9/(36*30)</f>
+        <v>0.21430555555555555</v>
+      </c>
+    </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="33">
+        <v>60.6</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="33">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" s="33">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="33">
+        <v>169.21</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="33">
+        <v>136</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="33">
+        <v>175.72</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="33">
+        <v>229.81</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="33">
+        <v>207.6</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="33">
+        <v>189.52</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="33">
+        <f>H17/(36*30)</f>
+        <v>0.21278703703703705</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="33">
+        <f>K17/(36*30)</f>
+        <v>0.19222222222222221</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="33">
+        <f>N17/(36*30)</f>
+        <v>0.17548148148148149</v>
+      </c>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H20" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J20" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K20" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M20" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="N20" s="32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="34" t="s">
+    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="N21" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="34" t="s">
+      <c r="J22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="33">
+        <v>91.5</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="H24" s="33">
+        <v>174.85</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" s="34" t="s">
+      <c r="K24" s="33">
+        <v>279.57</v>
+      </c>
+      <c r="M24" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="35">
-        <v>60.6</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="35">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="N15" s="35">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="35">
-        <v>169.21</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K16" s="35">
-        <v>136</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" s="35">
-        <v>175.72</v>
-      </c>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="35">
-        <v>229.81</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="35">
-        <v>207.6</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="35">
-        <v>189.52</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="34" t="s">
+      <c r="N24" s="33">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="33">
+        <v>186.35</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="33">
+        <v>371.07</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="33">
+        <v>144.88</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="35">
-        <v>11.5</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="35">
-        <v>91.5</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="35">
-        <v>174.85</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="35">
-        <v>279.57</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="N24" s="35">
-        <v>144.88</v>
-      </c>
-    </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="35">
-        <v>186.35</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="35">
-        <v>371.07</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N25" s="35">
-        <v>144.88</v>
+      <c r="H26" s="33">
+        <f>H25/(36*30)</f>
+        <v>0.17254629629629628</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="33">
+        <f>K25/(36*30)</f>
+        <v>0.34358333333333335</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="33">
+        <f>N25/(36*30)</f>
+        <v>0.13414814814814816</v>
       </c>
     </row>
   </sheetData>
@@ -2585,521 +2650,685 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF64E18-0686-45F5-B540-A07581DDBAC0}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="48" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="52">
+        <v>470</v>
+      </c>
+      <c r="D3" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="54">
+        <v>114</v>
+      </c>
+      <c r="F3" s="68">
+        <v>0.39</v>
+      </c>
+      <c r="G3" s="54">
+        <v>116</v>
+      </c>
+      <c r="H3" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="I3" s="27">
+        <v>2356</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
+      <c r="C4" s="53"/>
+      <c r="E4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="55">
+        <v>0</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="49">
+        <v>355</v>
+      </c>
+      <c r="F5" s="67">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="49">
+        <v>0</v>
+      </c>
+      <c r="H5" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1898</v>
+      </c>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="60"/>
+      <c r="C6" s="53"/>
+      <c r="E6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="55">
+        <v>0</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.17</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="G7" s="49">
+        <v>354</v>
+      </c>
+      <c r="H7" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2107</v>
+      </c>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="60"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="26">
+        <v>2228</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26">
+        <v>1509</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>2624</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="69">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="29">
+        <v>14614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="52">
+        <v>470</v>
+      </c>
+      <c r="D17" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="54">
+        <v>114</v>
+      </c>
+      <c r="F17" s="68">
+        <v>0.39</v>
+      </c>
+      <c r="G17" s="54">
+        <v>116</v>
+      </c>
+      <c r="H17" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="I17" s="27">
+        <v>2356</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="60"/>
+      <c r="C18" s="53"/>
+      <c r="E18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="49">
+        <v>355</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0</v>
+      </c>
+      <c r="H19" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1898</v>
+      </c>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="60"/>
+      <c r="C20" s="53"/>
+      <c r="E20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+      <c r="D21" s="67">
+        <v>0.17</v>
+      </c>
+      <c r="E21" s="49">
+        <v>0</v>
+      </c>
+      <c r="F21" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="G21" s="49">
+        <v>354</v>
+      </c>
+      <c r="H21" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2107</v>
+      </c>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="60"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="58"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
+      <c r="C23" s="26">
+        <v>2228</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
+        <v>1509</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26">
+        <v>2624</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="69">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="O24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="31">
+        <v>1613284.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O25" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="29">
-        <v>18094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="P25" s="31">
+        <v>14614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="29">
+        <v>14614</v>
+      </c>
+      <c r="O26" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="P26" s="31">
+        <v>2731.7099999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="62"/>
+      <c r="K30" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="52">
+        <v>470</v>
+      </c>
+      <c r="D31" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="54">
+        <v>114</v>
+      </c>
+      <c r="F31" s="68">
+        <v>0.39</v>
+      </c>
+      <c r="G31" s="54">
+        <v>116</v>
+      </c>
+      <c r="H31" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="I31" s="27">
+        <v>2356</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="42">
+        <v>5</v>
+      </c>
+      <c r="L31" s="42">
+        <v>5</v>
+      </c>
+      <c r="M31" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="53"/>
+      <c r="E32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="55">
+        <v>0</v>
+      </c>
+      <c r="D33" s="67">
+        <v>0.21</v>
+      </c>
+      <c r="E33" s="49">
+        <v>355</v>
+      </c>
+      <c r="F33" s="67">
+        <v>0.19</v>
+      </c>
+      <c r="G33" s="49">
+        <v>0</v>
+      </c>
+      <c r="H33" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="I33" s="27">
+        <v>1898</v>
+      </c>
+      <c r="J33" s="48"/>
+      <c r="K33" s="42">
+        <v>7</v>
+      </c>
+      <c r="L33" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="56"/>
+      <c r="C34" s="53"/>
+      <c r="E34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="55">
-        <v>470</v>
-      </c>
-      <c r="D7" s="31">
-        <v>14</v>
-      </c>
-      <c r="E7" s="51">
-        <v>114</v>
-      </c>
-      <c r="F7" s="31">
-        <v>24</v>
-      </c>
-      <c r="G7" s="51">
-        <v>116</v>
-      </c>
-      <c r="H7" s="31">
-        <v>9</v>
-      </c>
-      <c r="I7" s="27">
-        <v>700</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
-      <c r="C8" s="56"/>
-      <c r="E8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="48"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="C35" s="55">
+        <v>0</v>
+      </c>
+      <c r="D35" s="67">
+        <v>0.17</v>
+      </c>
+      <c r="E35" s="49">
+        <v>0</v>
+      </c>
+      <c r="F35" s="67">
+        <v>0.34</v>
+      </c>
+      <c r="G35" s="49">
+        <v>354</v>
+      </c>
+      <c r="H35" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="I35" s="27">
+        <v>2107</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="42">
+        <v>13</v>
+      </c>
+      <c r="L35" s="42">
+        <v>13</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="56"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="26">
+        <v>2228</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26">
+        <v>1509</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26">
+        <v>2624</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="69">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="44">
+        <v>1</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46">
+        <v>18</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="46">
+        <v>3</v>
+      </c>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="51"/>
+      <c r="C40" s="44">
+        <v>5</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46">
+        <v>4</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="46">
+        <v>3</v>
+      </c>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="57">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <v>13</v>
-      </c>
-      <c r="E9" s="53">
-        <v>355</v>
-      </c>
-      <c r="F9" s="32">
-        <v>6</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
-        <v>21</v>
-      </c>
-      <c r="I9" s="27">
-        <v>355</v>
-      </c>
-      <c r="J9" s="48"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50"/>
-      <c r="C10" s="56"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="48"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="57">
-        <v>0</v>
-      </c>
-      <c r="D11" s="32">
-        <v>19</v>
-      </c>
-      <c r="E11" s="53">
-        <v>0</v>
-      </c>
-      <c r="F11" s="32">
-        <v>28</v>
-      </c>
-      <c r="G11" s="53">
-        <v>354</v>
-      </c>
-      <c r="H11" s="32">
-        <v>6</v>
-      </c>
-      <c r="I11" s="27">
-        <v>354</v>
-      </c>
-      <c r="J11" s="48"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="48"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="26">
-        <v>470</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26">
-        <v>469</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26">
-        <v>470</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="O14" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" s="33">
-        <v>17345.71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O15" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="P15" s="33">
+      <c r="C43" s="29">
         <v>14614</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="29">
-        <v>14614</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P16" s="33">
-        <v>2731.7099999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="46"/>
-      <c r="K20" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="53">
-        <v>470</v>
-      </c>
-      <c r="D21" s="32">
-        <v>14</v>
-      </c>
-      <c r="E21" s="53">
-        <v>114</v>
-      </c>
-      <c r="F21" s="32">
-        <v>24</v>
-      </c>
-      <c r="G21" s="53">
-        <v>116</v>
-      </c>
-      <c r="H21" s="32">
-        <v>9</v>
-      </c>
-      <c r="I21" s="27">
-        <v>700</v>
-      </c>
-      <c r="J21" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="K21" s="60">
-        <v>5</v>
-      </c>
-      <c r="L21" s="60">
-        <v>5</v>
-      </c>
-      <c r="M21" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="53">
-        <v>0</v>
-      </c>
-      <c r="D23" s="32">
-        <v>13</v>
-      </c>
-      <c r="E23" s="53">
-        <v>355</v>
-      </c>
-      <c r="F23" s="32">
-        <v>6</v>
-      </c>
-      <c r="G23" s="53">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
-        <v>21</v>
-      </c>
-      <c r="I23" s="27">
-        <v>355</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="60">
-        <v>7</v>
-      </c>
-      <c r="L23" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="53">
-        <v>0</v>
-      </c>
-      <c r="D25" s="32">
-        <v>19</v>
-      </c>
-      <c r="E25" s="53">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32">
-        <v>28</v>
-      </c>
-      <c r="G25" s="53">
-        <v>354</v>
-      </c>
-      <c r="H25" s="32">
-        <v>6</v>
-      </c>
-      <c r="I25" s="27">
-        <v>354</v>
-      </c>
-      <c r="J25" s="66"/>
-      <c r="K25" s="60">
-        <v>13</v>
-      </c>
-      <c r="L25" s="60">
-        <v>13</v>
-      </c>
-      <c r="M25" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="26">
-        <v>470</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26">
-        <v>469</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26">
-        <v>470</v>
-      </c>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="62">
-        <v>1</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64">
-        <v>18</v>
-      </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="64">
-        <v>3</v>
-      </c>
-      <c r="H29" s="65"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="54"/>
-      <c r="C30" s="62">
-        <v>5</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64">
-        <v>4</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="64">
-        <v>3</v>
-      </c>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="29">
-        <v>14614</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J21:J26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B29:B30"/>
+  <mergeCells count="68">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3108,7 +3337,7 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,7 +3350,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3562,17 +3791,17 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3666,17 +3895,17 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3735,22 +3964,23 @@
       <c r="J28" s="13">
         <v>1528.2680653367509</v>
       </c>
+      <c r="K28" s="66"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="64">
         <f>(C28*C22)+(D28*D22)+(E28*E22)+(F28*F22)+(G28*G22)+(H28*H22)+(I28*I22)+(J28*J22)</f>
         <v>1613284.3385292357</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DIOGO.xlsx
+++ b/DIOGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\diogo\myprojs\prog_linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E8BE6-2640-4EC7-BDF4-5A4CE7EF5426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4261C-1536-4072-8EF6-0E86769573AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório de Sensibilidade" sheetId="6" r:id="rId1"/>
@@ -1093,94 +1093,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{DAF39087-F975-4261-B48F-75F325210FA3}"/>
@@ -2149,11 +2149,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G4" s="32" t="s">
@@ -2176,14 +2176,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
       <c r="G5" s="32" t="s">
         <v>107</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="15" t="s">
         <v>99</v>
       </c>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF64E18-0686-45F5-B540-A07581DDBAC0}">
   <dimension ref="A2:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,130 +2672,130 @@
       <c r="A2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="62"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C3" s="54">
         <v>470</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="40">
         <v>0.1</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="55">
         <v>114</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="40">
         <v>0.39</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="55">
         <v>116</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="40">
         <v>0.21</v>
       </c>
       <c r="I3" s="27">
         <v>2356</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="53"/>
-      <c r="E4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="50"/>
+      <c r="E4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="24"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="58"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="55">
-        <v>0</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="C5" s="49">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
         <v>0.21</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="51">
         <v>355</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="39">
         <v>0.19</v>
       </c>
-      <c r="G5" s="49">
-        <v>0</v>
-      </c>
-      <c r="H5" s="67">
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
         <v>0.18</v>
       </c>
       <c r="I5" s="27">
         <v>1898</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="53"/>
-      <c r="E6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
+      <c r="E6" s="52"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="58"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="55">
-        <v>0</v>
-      </c>
-      <c r="D7" s="67">
+      <c r="C7" s="49">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39">
         <v>0.17</v>
       </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="67">
+      <c r="E7" s="51">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
         <v>0.34</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="51">
         <v>354</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="39">
         <v>0.13</v>
       </c>
       <c r="I7" s="27">
         <v>2107</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="50"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="50"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="22"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="58"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="30"/>
@@ -2811,19 +2811,19 @@
         <v>2624</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="I9" s="69">
+      <c r="I9" s="41">
         <v>6361</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
@@ -2837,130 +2837,130 @@
       <c r="A16" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="62"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="54">
         <v>470</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="40">
         <v>0.1</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="55">
         <v>114</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="40">
         <v>0.39</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="55">
         <v>116</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="40">
         <v>0.21</v>
       </c>
       <c r="I17" s="27">
         <v>2356</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
-      <c r="C18" s="53"/>
-      <c r="E18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="50"/>
+      <c r="E18" s="52"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="55">
-        <v>0</v>
-      </c>
-      <c r="D19" s="67">
+      <c r="C19" s="49">
+        <v>0</v>
+      </c>
+      <c r="D19" s="39">
         <v>0.21</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="51">
         <v>355</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="39">
         <v>0.19</v>
       </c>
-      <c r="G19" s="49">
-        <v>0</v>
-      </c>
-      <c r="H19" s="67">
+      <c r="G19" s="51">
+        <v>0</v>
+      </c>
+      <c r="H19" s="39">
         <v>0.18</v>
       </c>
       <c r="I19" s="27">
         <v>1898</v>
       </c>
-      <c r="J19" s="58"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="53"/>
-      <c r="E20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="50"/>
+      <c r="E20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="58"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="55">
-        <v>0</v>
-      </c>
-      <c r="D21" s="67">
+      <c r="C21" s="49">
+        <v>0</v>
+      </c>
+      <c r="D21" s="39">
         <v>0.17</v>
       </c>
-      <c r="E21" s="49">
-        <v>0</v>
-      </c>
-      <c r="F21" s="67">
+      <c r="E21" s="51">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
         <v>0.34</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="51">
         <v>354</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="39">
         <v>0.13</v>
       </c>
       <c r="I21" s="27">
         <v>2107</v>
       </c>
-      <c r="J21" s="58"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="50"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="50"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="22"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="58"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="30"/>
@@ -2976,19 +2976,19 @@
         <v>2624</v>
       </c>
       <c r="H23" s="26"/>
-      <c r="I23" s="69">
+      <c r="I23" s="41">
         <v>6361</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
       <c r="O24" s="21" t="s">
         <v>93</v>
       </c>
@@ -3022,171 +3022,171 @@
       <c r="A30" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62" t="s">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="K30" s="61" t="s">
+      <c r="H30" s="53"/>
+      <c r="K30" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="54">
         <v>470</v>
       </c>
-      <c r="D31" s="68">
+      <c r="D31" s="40">
         <v>0.1</v>
       </c>
-      <c r="E31" s="54">
+      <c r="E31" s="55">
         <v>114</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="40">
         <v>0.39</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="55">
         <v>116</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="40">
         <v>0.21</v>
       </c>
       <c r="I31" s="27">
         <v>2356</v>
       </c>
-      <c r="J31" s="48" t="s">
+      <c r="J31" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="57">
         <v>5</v>
       </c>
-      <c r="L31" s="42">
+      <c r="L31" s="57">
         <v>5</v>
       </c>
-      <c r="M31" s="42">
+      <c r="M31" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="53"/>
-      <c r="E32" s="50"/>
-      <c r="G32" s="50"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="50"/>
+      <c r="E32" s="52"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="55">
-        <v>0</v>
-      </c>
-      <c r="D33" s="67">
+      <c r="C33" s="49">
+        <v>0</v>
+      </c>
+      <c r="D33" s="39">
         <v>0.21</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="51">
         <v>355</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="39">
         <v>0.19</v>
       </c>
-      <c r="G33" s="49">
-        <v>0</v>
-      </c>
-      <c r="H33" s="67">
+      <c r="G33" s="51">
+        <v>0</v>
+      </c>
+      <c r="H33" s="39">
         <v>0.18</v>
       </c>
       <c r="I33" s="27">
         <v>1898</v>
       </c>
-      <c r="J33" s="48"/>
-      <c r="K33" s="42">
+      <c r="J33" s="66"/>
+      <c r="K33" s="57">
         <v>7</v>
       </c>
-      <c r="L33" s="42" t="s">
+      <c r="L33" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="42" t="s">
+      <c r="M33" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="53"/>
-      <c r="E34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="50"/>
+      <c r="E34" s="52"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="24"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="55">
-        <v>0</v>
-      </c>
-      <c r="D35" s="67">
+      <c r="C35" s="49">
+        <v>0</v>
+      </c>
+      <c r="D35" s="39">
         <v>0.17</v>
       </c>
-      <c r="E35" s="49">
-        <v>0</v>
-      </c>
-      <c r="F35" s="67">
+      <c r="E35" s="51">
+        <v>0</v>
+      </c>
+      <c r="F35" s="39">
         <v>0.34</v>
       </c>
-      <c r="G35" s="49">
+      <c r="G35" s="51">
         <v>354</v>
       </c>
-      <c r="H35" s="67">
+      <c r="H35" s="39">
         <v>0.13</v>
       </c>
       <c r="I35" s="27">
         <v>2107</v>
       </c>
-      <c r="J35" s="48"/>
-      <c r="K35" s="42">
+      <c r="J35" s="66"/>
+      <c r="K35" s="57">
         <v>13</v>
       </c>
-      <c r="L35" s="42">
+      <c r="L35" s="57">
         <v>13</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="57" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="23"/>
-      <c r="E36" s="50"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="50"/>
+      <c r="G36" s="52"/>
       <c r="H36" s="22"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
@@ -3202,51 +3202,51 @@
         <v>2624</v>
       </c>
       <c r="H37" s="26"/>
-      <c r="I37" s="69">
+      <c r="I37" s="41">
         <v>6361</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="62">
         <v>1</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46">
+      <c r="D39" s="63"/>
+      <c r="E39" s="64">
         <v>18</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="46">
+      <c r="F39" s="65"/>
+      <c r="G39" s="64">
         <v>3</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="65"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
-      <c r="C40" s="44">
+      <c r="B40" s="59"/>
+      <c r="C40" s="62">
         <v>5</v>
       </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46">
+      <c r="D40" s="63"/>
+      <c r="E40" s="64">
         <v>4</v>
       </c>
-      <c r="F40" s="47"/>
-      <c r="G40" s="46">
+      <c r="F40" s="65"/>
+      <c r="G40" s="64">
         <v>3</v>
       </c>
-      <c r="H40" s="47"/>
+      <c r="H40" s="65"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
@@ -3258,44 +3258,20 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="L33:L34"/>
@@ -3312,20 +3288,44 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3336,15 +3336,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD623A7-0304-430D-B3EA-C6551D0CC8A6}">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="18.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3791,17 +3798,17 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3895,17 +3902,17 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3964,23 +3971,23 @@
       <c r="J28" s="13">
         <v>1528.2680653367509</v>
       </c>
-      <c r="K28" s="66"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="68">
         <f>(C28*C22)+(D28*D22)+(E28*E22)+(F28*F22)+(G28*G22)+(H28*H22)+(I28*I22)+(J28*J22)</f>
         <v>1613284.3385292357</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/DIOGO.xlsx
+++ b/DIOGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\diogo\myprojs\prog_linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B4261C-1536-4072-8EF6-0E86769573AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A8A73-C4B3-4678-89A2-0703767ADE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{EED5DB34-0711-4511-B674-24674A8513DE}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="138">
   <si>
     <t>INDUTOR</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Penalidades</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Araçatuba</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>Distância</t>
   </si>
   <si>
-    <t>174 km</t>
-  </si>
-  <si>
     <t>Pedágio</t>
   </si>
   <si>
@@ -421,15 +415,9 @@
     <t>5 h 22 m</t>
   </si>
   <si>
-    <t>536 km</t>
-  </si>
-  <si>
     <t>4 h 58 m</t>
   </si>
   <si>
-    <t>436 km</t>
-  </si>
-  <si>
     <t>Avaré - Araçatuba</t>
   </si>
   <si>
@@ -460,39 +448,21 @@
     <t>3 h 11 m</t>
   </si>
   <si>
-    <t>316 km</t>
-  </si>
-  <si>
     <t>2 h 42 m</t>
   </si>
   <si>
-    <t>244 km</t>
-  </si>
-  <si>
     <t>3 h 45 m</t>
   </si>
   <si>
-    <t>331 km</t>
-  </si>
-  <si>
     <t>3 h 31 m</t>
   </si>
   <si>
-    <t>323 km</t>
-  </si>
-  <si>
     <t>5 h 27 m</t>
   </si>
   <si>
-    <t>514 km</t>
-  </si>
-  <si>
     <t>3 h 13 m</t>
   </si>
   <si>
-    <t>275 km</t>
-  </si>
-  <si>
     <t>Rota 4:</t>
   </si>
   <si>
@@ -512,6 +482,15 @@
   </si>
   <si>
     <t>Custo/produto</t>
+  </si>
+  <si>
+    <t>Canto Noroeste</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -569,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +606,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF918E0C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,15 +997,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1012,13 +1006,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1055,11 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1070,11 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,7 +1093,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,55 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1169,8 +1117,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,13 +1147,106 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{DAF39087-F975-4261-B48F-75F325210FA3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1230,6 +1289,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF918E0C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1242,22 +1306,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A2347B-353C-4B5C-AA3E-5283C1BC42F9}" name="Tabela4" displayName="Tabela4" ref="B6:L17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{73A2347B-353C-4B5C-AA3E-5283C1BC42F9}" name="Tabela4" displayName="Tabela4" ref="B6:L18" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="B6:L17" xr:uid="{73A2347B-353C-4B5C-AA3E-5283C1BC42F9}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{FF2CB8AD-9DA8-4389-84E1-3AD133A3F26D}" name="PRODUTO" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{90484669-5717-4E48-A5F6-F69FCDCB36E1}" name="AMPLIF. CLASS D TS 400X4 WATTS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4217E608-20E6-4B11-94E6-45CADDD33574}" name="AMPLIF. CLASS D DS 440X4" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D9AE80F9-EEE4-4DC4-A394-584614868FFD}" name="AMPLIF. CLASS D MD 1200.1 4 OHMS" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4E552034-C4DA-4148-93AF-041F4D4AAD0D}" name="AMPLIF. CLASS D BASS 800 1 OHM" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{24C2EE9B-2606-409C-8B5A-E1D7D57C43CB}" name="AMPLAYER 400" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C2835E1C-ACCE-47D8-90C7-ADCD298AE9A7}" name="ALTO FALANTE 12 BASS 1K6 2+2 OHMS" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{68DC3BEA-EBA9-4EF3-A91E-F1D336E4046B}" name="ALTO FALANTE 5 HD 250S 4 OHMS" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{DE3D6E04-8441-4A51-BE75-BAEECF850EEA}" name="ALTO FALANTE 12 ML 570S 4 OHMS" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{40FBF7D7-9DCB-4874-B358-08346A19DBD3}" name="LEE" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{FF2CB8AD-9DA8-4389-84E1-3AD133A3F26D}" name="PRODUTO" dataDxfId="21" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{90484669-5717-4E48-A5F6-F69FCDCB36E1}" name="AMPLIF. CLASS D TS 400X4 WATTS" dataDxfId="20" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4217E608-20E6-4B11-94E6-45CADDD33574}" name="AMPLIF. CLASS D DS 440X4" dataDxfId="19" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D9AE80F9-EEE4-4DC4-A394-584614868FFD}" name="AMPLIF. CLASS D MD 1200.1 4 OHMS" dataDxfId="18" totalsRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4E552034-C4DA-4148-93AF-041F4D4AAD0D}" name="AMPLIF. CLASS D BASS 800 1 OHM" dataDxfId="17" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{24C2EE9B-2606-409C-8B5A-E1D7D57C43CB}" name="AMPLAYER 400" dataDxfId="16" totalsRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{C2835E1C-ACCE-47D8-90C7-ADCD298AE9A7}" name="ALTO FALANTE 12 BASS 1K6 2+2 OHMS" dataDxfId="15" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{68DC3BEA-EBA9-4EF3-A91E-F1D336E4046B}" name="ALTO FALANTE 5 HD 250S 4 OHMS" dataDxfId="14" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{DE3D6E04-8441-4A51-BE75-BAEECF850EEA}" name="ALTO FALANTE 12 ML 570S 4 OHMS" dataDxfId="13" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{40FBF7D7-9DCB-4874-B358-08346A19DBD3}" name="LEE" dataDxfId="12" totalsRowDxfId="1">
       <calculatedColumnFormula>(C7*$C$28)+(D7*$D$28)+(E7*$E$28)+(F7*$F$28)+(G7*$G$28)+(H7*$H$28)+(I7*$I$28)+(J7*$J$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8EEBF384-E6C4-47AE-ADE4-4D8B4952AC96}" name="LDE" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{8EEBF384-E6C4-47AE-ADE4-4D8B4952AC96}" name="LDE" dataDxfId="11" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1582,12 +1646,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1596,228 +1660,228 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
         <v>117.9</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="28">
         <v>43.402953874858866</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="28">
         <v>2.717054482007903</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <v>39.458408227008931</v>
       </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
         <v>144.9</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="28">
         <v>3.937848679131299</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="28">
         <v>21.701476937429433</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="34">
-        <v>0</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
         <v>-21.268835489288954</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="28">
         <v>170.90000000000003</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="28">
         <v>21.268835489288954</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="28">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
         <v>-13.743795267701975</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="28">
         <v>130.89999999999998</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="28">
         <v>13.743795267701975</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="28">
         <v>1E+30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="28">
         <v>91.283849485811942</v>
       </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
         <v>217.89999999999998</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="28">
         <v>70.114025301325213</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="28">
         <v>16.002357000332466</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="28">
         <v>3471.7319346632494</v>
       </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
         <v>243.90000000000009</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="28">
         <v>112.93428571428571</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="28">
         <v>5.8477414525915128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="34">
-        <v>0</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="28">
         <v>-6.4460076023218349</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="28">
         <v>225.90000000000009</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="28">
         <v>6.4460076023218349</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="28">
         <v>1E+30</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="29">
         <v>1528.2680653367509</v>
       </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="29">
         <v>389.90000000000009</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="29">
         <v>58.680675281367712</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="29">
         <v>112.93428571428571</v>
       </c>
     </row>
@@ -1827,297 +1891,297 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="28">
         <v>5000</v>
       </c>
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
         <v>5000</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="28">
         <v>5000</v>
       </c>
-      <c r="E22" s="34">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
         <v>5000</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="28">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="28">
         <v>5000</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="28">
         <v>50.758449774582267</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="28">
         <v>5000</v>
       </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="28">
         <v>998.7884417906439</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="28">
         <v>2000</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="28">
         <v>2.2686312873854364</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="28">
         <v>2000</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="28">
         <v>147.06980626455231</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="28">
         <v>643.89341536415031</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="28">
         <v>1230.2707958864955</v>
       </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
         <v>2000</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="28">
         <v>769.72920411350447</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="28">
         <v>495.87765565606867</v>
       </c>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="E26" s="28">
+        <v>0</v>
+      </c>
+      <c r="F26" s="28">
         <v>2000</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="28">
         <v>1504.1223443439312</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="28">
         <v>1452.2969030851284</v>
       </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="E27" s="28">
+        <v>0</v>
+      </c>
+      <c r="F27" s="28">
         <v>2000</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="28">
         <v>547.70309691487159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="28">
         <v>5000</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="28">
         <v>1.0370314111441841</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <v>5000</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="28">
         <v>149.83272352947773</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="28">
         <v>3223.3476673177429</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="28">
         <v>6844.5236762235909</v>
       </c>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
         <v>10000</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="28">
         <v>1E+30</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="28">
         <v>3155.4763237764082</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="28">
         <v>10000000</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="28">
         <v>2.4561797718321152E-2</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>10000000</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="28">
         <v>874669.28036510025</v>
       </c>
-      <c r="H30" s="34">
+      <c r="H30" s="28">
         <v>34863.31684457176</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="29">
         <v>9480000</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="29">
         <v>0.11647169755723852</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="29">
         <v>9480000</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="29">
         <v>83693.750000000015</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="29">
         <v>1481852.380952379</v>
       </c>
     </row>
@@ -2131,7 +2195,7 @@
   <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,502 +2204,532 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="32" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="J4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="M4" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="32" t="s">
+      <c r="N4" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="32" t="s">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="G5" s="26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>115</v>
+      <c r="J5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="26">
+        <v>174</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="26">
+        <v>536</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="26">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="56">
+        <f>H10</f>
+        <v>0.20145382395382394</v>
+      </c>
+      <c r="D7" s="57">
+        <f>K10</f>
+        <v>0.75963924963924978</v>
+      </c>
+      <c r="E7" s="57">
+        <f>N10</f>
+        <v>0.46321067821067818</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H7" s="27">
+        <v>11.5</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="27">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="58">
+        <f>H18</f>
+        <v>0.42316738816738814</v>
+      </c>
+      <c r="D8" s="59">
+        <f>K18</f>
+        <v>0.36254689754689751</v>
+      </c>
+      <c r="E8" s="59">
+        <f>N18</f>
+        <v>0.3715710678210678</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="H8" s="27">
+        <f>(H6/8)*5.89</f>
+        <v>128.10749999999999</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="27">
+        <f>(K6/8)*5.89</f>
+        <v>394.63</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="27">
+        <f>(N6/8)*5.89</f>
+        <v>321.005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="58">
+        <f>H26</f>
+        <v>0.35975288600288596</v>
+      </c>
+      <c r="D9" s="59">
+        <f>K26</f>
+        <v>0.67811327561327561</v>
+      </c>
+      <c r="E9" s="59">
+        <f>N26</f>
+        <v>0.29216269841269843</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="27">
+        <f>SUM(H7:H8)</f>
+        <v>139.60749999999999</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="27">
+        <f>SUM(K7:K8)</f>
+        <v>526.43000000000006</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="27">
+        <f>SUM(N7:N8)</f>
+        <v>321.005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="27">
+        <f>H9/693</f>
+        <v>0.20145382395382394</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="27">
+        <f>K9/693</f>
+        <v>0.75963924963924978</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="27">
+        <f>N9/693</f>
+        <v>0.46321067821067818</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="26">
+        <v>316</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="26">
+        <v>244</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="26">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="M6" s="32" t="s">
+      <c r="H15" s="27">
+        <v>60.6</v>
+      </c>
+      <c r="J15" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="K15" s="27">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="27">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="27">
+        <f>(H14/8)*5.89</f>
+        <v>232.655</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="27">
+        <f>(K14/8)*5.89</f>
+        <v>179.64499999999998</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="27">
+        <f>(N14/8)*5.89</f>
+        <v>243.69874999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="27">
+        <f>SUM(H15:H16)</f>
+        <v>293.255</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="27">
+        <f>SUM(K15:K16)</f>
+        <v>251.24499999999998</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="27">
+        <f>SUM(N15:N16)</f>
+        <v>257.49874999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="27">
+        <f>H17/693</f>
+        <v>0.42316738816738814</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="27">
+        <f>K17/693</f>
+        <v>0.36254689754689751</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N18" s="27">
+        <f>N17/693</f>
+        <v>0.3715710678210678</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G20" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.39</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="J20" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G21" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="26">
+        <v>323</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="26">
+        <v>514</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="N22" s="26">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="27">
         <v>11.5</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="33">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0.21</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="33">
-        <v>94.56</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="33">
-        <v>291.13</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="33">
-        <v>231.45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.17</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.34</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="G9" s="32" t="s">
+      <c r="J23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="27">
+        <v>91.5</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="27">
+        <f>(H22/8)*5.89</f>
+        <v>237.80874999999997</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="27">
+        <f>(K22/8)*5.89</f>
+        <v>378.4325</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="27">
+        <f>(N22/8)*5.89</f>
+        <v>202.46875</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="33">
-        <v>106.06</v>
-      </c>
-      <c r="J9" s="32" t="s">
+      <c r="H25" s="27">
+        <f>SUM(H23:H24)</f>
+        <v>249.30874999999997</v>
+      </c>
+      <c r="J25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="33">
-        <v>422.93</v>
-      </c>
-      <c r="M9" s="32" t="s">
+      <c r="K25" s="27">
+        <f>SUM(K23:K24)</f>
+        <v>469.9325</v>
+      </c>
+      <c r="M25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="33">
-        <v>231.45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="33">
-        <f>H9/(36*30)</f>
-        <v>9.820370370370371E-2</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="33">
-        <f>K9/(36*30)</f>
-        <v>0.39160185185185187</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="33">
-        <f>N9/(36*30)</f>
-        <v>0.21430555555555555</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="33">
-        <v>60.6</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="33">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" s="33">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="33">
-        <v>169.21</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="33">
-        <v>136</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="33">
-        <v>175.72</v>
-      </c>
-    </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="33">
-        <v>229.81</v>
-      </c>
-      <c r="J17" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="33">
-        <v>207.6</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="33">
-        <v>189.52</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="33">
-        <f>H17/(36*30)</f>
-        <v>0.21278703703703705</v>
-      </c>
-      <c r="J18" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="33">
-        <f>K17/(36*30)</f>
-        <v>0.19222222222222221</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="33">
-        <f>N17/(36*30)</f>
-        <v>0.17548148148148149</v>
-      </c>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="32" t="s">
+      <c r="N25" s="27">
+        <f>SUM(N23:N24)</f>
+        <v>202.46875</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="M21" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="N21" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="33">
-        <v>11.5</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="33">
-        <v>91.5</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="33">
-        <v>174.85</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="33">
-        <v>279.57</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="33">
-        <v>144.88</v>
-      </c>
-    </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="33">
-        <v>186.35</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="33">
-        <v>371.07</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="33">
-        <v>144.88</v>
-      </c>
-    </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="33">
-        <f>H25/(36*30)</f>
-        <v>0.17254629629629628</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="K26" s="33">
-        <f>K25/(36*30)</f>
-        <v>0.34358333333333335</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="N26" s="33">
-        <f>N25/(36*30)</f>
-        <v>0.13414814814814816</v>
+      <c r="H26" s="27">
+        <f>H25/693</f>
+        <v>0.35975288600288596</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="27">
+        <f>K25/693</f>
+        <v>0.67811327561327561</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="N26" s="27">
+        <f>N25/693</f>
+        <v>0.29216269841269843</v>
       </c>
     </row>
   </sheetData>
@@ -2650,614 +2744,2765 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF64E18-0686-45F5-B540-A07581DDBAC0}">
-  <dimension ref="A2:P43"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.7109375" customWidth="1"/>
+    <col min="1" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="73"/>
+      <c r="B2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73"/>
+      <c r="B3" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="48">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="49">
+        <v>100</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.76</v>
+      </c>
+      <c r="G3" s="49">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="I3" s="70">
+        <v>2600</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+    </row>
+    <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="46"/>
+      <c r="E4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21">
+        <f>I3-C3-E3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="71"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1700</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="G5" s="43">
+        <v>200</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.37</v>
+      </c>
+      <c r="I5" s="70">
+        <v>1900</v>
+      </c>
+      <c r="J5" s="71"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="46"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21">
+        <f>I5-C5-E5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73"/>
+      <c r="B7" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.68</v>
+      </c>
+      <c r="G7" s="43">
+        <v>2500</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I7" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J7" s="71"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="21">
+        <f>I7-C7-E7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="69">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="22">
+        <f>C9-C3-C5-C7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="69">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="22">
+        <f>E9-E3-E5-E7</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="69">
+        <v>2700</v>
+      </c>
+      <c r="H9" s="22">
+        <f>G9-G3-G5-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="73"/>
+      <c r="AJ10" s="73"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="72">
+        <f>(C3*D3)+(C5*D5)+(C7*D7)+(E3*F3)+(E5*F5)+(E7*F7)+(G3*H3)+(G5*H5)+(G7*H7)</f>
+        <v>1987</v>
+      </c>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="73"/>
+      <c r="AJ12" s="73"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="73"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="73"/>
+      <c r="AC14" s="73"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
+      <c r="AI14" s="73"/>
+      <c r="AJ14" s="73"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="73"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="65"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="48">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="49">
         <v>100</v>
       </c>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="47" t="s">
+      <c r="F17" s="34">
+        <v>0.76</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="I17" s="70">
+        <v>2600</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="46"/>
+      <c r="E18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21">
+        <f>I17-C17-E17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="71"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="25">
+        <f>Solver!C29</f>
+        <v>2074217.2727272727</v>
+      </c>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73"/>
+      <c r="B19" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="45">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="E19" s="43">
+        <v>1700</v>
+      </c>
+      <c r="F19" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="G19" s="43">
+        <v>200</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.37</v>
+      </c>
+      <c r="I19" s="70">
+        <v>1900</v>
+      </c>
+      <c r="J19" s="71"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="25">
+        <f>MAX(C12,C26,C43)</f>
+        <v>1987</v>
+      </c>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="73"/>
+      <c r="AC19" s="73"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="46"/>
+      <c r="E20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21">
+        <f>I19-C19-E19-G19</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="71"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="68">
+        <f>P18-P19</f>
+        <v>2072230.2727272727</v>
+      </c>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73"/>
+      <c r="B21" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="45">
+        <v>0</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.68</v>
+      </c>
+      <c r="G21" s="43">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I21" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J21" s="71"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="73"/>
+      <c r="AC21" s="73"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
+      <c r="AI21" s="73"/>
+      <c r="AJ21" s="73"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="73"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="21">
+        <f>I21-C21-E21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="71"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="69">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="22">
+        <f>C23-C17-C19-C21</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="69">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="22">
+        <f>E23-E17-E19-E21</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="69">
+        <v>2700</v>
+      </c>
+      <c r="H23" s="22">
+        <f>G23-G17-G19-G21</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="73"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="73"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="73"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="73"/>
+      <c r="AI25" s="73"/>
+      <c r="AJ25" s="73"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="72">
+        <f>(C17*D17)+(C19*D19)+(C21*D21)+(E17*F17)+(E19*F19)+(E21*F21)+(G17*H17)+(G19*H19)+(G21*H21)</f>
+        <v>1987</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="73"/>
+      <c r="AC26" s="73"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="73"/>
+      <c r="AJ26" s="73"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="73"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="73"/>
+      <c r="AI28" s="73"/>
+      <c r="AJ28" s="73"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="73"/>
+      <c r="AI29" s="73"/>
+      <c r="AJ29" s="73"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" s="65"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="73"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="54">
-        <v>470</v>
-      </c>
-      <c r="D3" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="55">
-        <v>114</v>
-      </c>
-      <c r="F3" s="40">
-        <v>0.39</v>
-      </c>
-      <c r="G3" s="55">
-        <v>116</v>
-      </c>
-      <c r="H3" s="40">
-        <v>0.21</v>
-      </c>
-      <c r="I3" s="27">
-        <v>2356</v>
-      </c>
-      <c r="J3" s="46" t="s">
+      <c r="C31" s="48">
+        <v>2500</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="49">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.76</v>
+      </c>
+      <c r="G31" s="49">
+        <v>100</v>
+      </c>
+      <c r="H31" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="I31" s="70">
+        <v>2600</v>
+      </c>
+      <c r="J31" s="71" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="50"/>
-      <c r="E4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="46"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47" t="s">
+      <c r="K31" s="60">
+        <f>H31-D31</f>
+        <v>0.26</v>
+      </c>
+      <c r="L31" s="60">
+        <f>K31</f>
+        <v>0.26</v>
+      </c>
+      <c r="M31" s="60">
+        <f>H31</f>
+        <v>0.46</v>
+      </c>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="73"/>
+      <c r="AC31" s="73"/>
+      <c r="AD31" s="73"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="73"/>
+      <c r="AI31" s="73"/>
+      <c r="AJ31" s="73"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="46"/>
+      <c r="E32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21">
+        <f>I31-C31-E31-G31</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="71"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="73"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="73"/>
+      <c r="AD32" s="73"/>
+      <c r="AE32" s="73"/>
+      <c r="AF32" s="73"/>
+      <c r="AG32" s="73"/>
+      <c r="AH32" s="73"/>
+      <c r="AI32" s="73"/>
+      <c r="AJ32" s="73"/>
+    </row>
+    <row r="33" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="73"/>
+      <c r="B33" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="49">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39">
-        <v>0.21</v>
-      </c>
-      <c r="E5" s="51">
-        <v>355</v>
-      </c>
-      <c r="F5" s="39">
-        <v>0.19</v>
-      </c>
-      <c r="G5" s="51">
-        <v>0</v>
-      </c>
-      <c r="H5" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="I5" s="27">
-        <v>1898</v>
-      </c>
-      <c r="J5" s="46"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="50"/>
-      <c r="E6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="46"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="C33" s="45">
+        <v>0</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.42</v>
+      </c>
+      <c r="E33" s="43">
+        <v>1800</v>
+      </c>
+      <c r="F33" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="G33" s="43">
+        <v>100</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0.37</v>
+      </c>
+      <c r="I33" s="70">
+        <v>1900</v>
+      </c>
+      <c r="J33" s="71"/>
+      <c r="K33" s="60">
+        <f>H33-F33</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="L33" s="60">
+        <f>D33-H33</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="M33" s="60">
+        <f>H33</f>
+        <v>0.37</v>
+      </c>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+      <c r="AJ33" s="73"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="46"/>
+      <c r="E34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21">
+        <f>I33-C33-E33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="71"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="73"/>
+      <c r="AG34" s="73"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="73"/>
+      <c r="AJ34" s="73"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="73"/>
+      <c r="B35" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="49">
-        <v>0</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.17</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.34</v>
-      </c>
-      <c r="G7" s="51">
-        <v>354</v>
-      </c>
-      <c r="H7" s="39">
-        <v>0.13</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2107</v>
-      </c>
-      <c r="J7" s="46"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="46"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="26">
-        <v>2228</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26">
-        <v>1509</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26">
-        <v>2624</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="41">
-        <v>6361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="46" t="s">
+      <c r="C35" s="45">
+        <v>0</v>
+      </c>
+      <c r="D35" s="33">
+        <v>0.36</v>
+      </c>
+      <c r="E35" s="43">
+        <v>0</v>
+      </c>
+      <c r="F35" s="33">
+        <v>0.68</v>
+      </c>
+      <c r="G35" s="43">
+        <v>2500</v>
+      </c>
+      <c r="H35" s="33">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I35" s="70">
+        <v>2500</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="60">
+        <f>D35-H35</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L35" s="60">
+        <f>D35-H35</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M35" s="60">
+        <f>H35</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="73"/>
+      <c r="AC35" s="73"/>
+      <c r="AD35" s="73"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="73"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="21">
+        <f>I35-C35-E35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="71"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="73"/>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="69">
+        <v>2500</v>
+      </c>
+      <c r="D37" s="22">
+        <f>C37-C31-C33-C35</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="69">
+        <v>1800</v>
+      </c>
+      <c r="F37" s="22">
+        <f>E37-E31-E33-E35</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="69">
+        <v>2700</v>
+      </c>
+      <c r="H37" s="22">
+        <f>G37-G31-G33-G35</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="73"/>
+      <c r="AC37" s="73"/>
+      <c r="AD37" s="73"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="73"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="73"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="73"/>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="62">
+        <f>D35-D31</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="61">
+        <f>F35-F33</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="F39" s="42"/>
+      <c r="G39" s="61">
+        <f>H33-H35</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="H39" s="42"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="73"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="73"/>
+      <c r="AD39" s="73"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="73"/>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="73"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="62">
+        <f>D35-D31</f>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="61">
+        <f>H33-H35</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="H40" s="42"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="73"/>
+      <c r="W40" s="73"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="73"/>
+      <c r="AC40" s="73"/>
+      <c r="AD40" s="73"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="73"/>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="42"/>
+      <c r="G41" s="61">
+        <f>H33-H35</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="H41" s="42"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="73"/>
+      <c r="W41" s="73"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="73"/>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="29">
-        <v>14614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="53"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="54">
-        <v>470</v>
-      </c>
-      <c r="D17" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="55">
-        <v>114</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0.39</v>
-      </c>
-      <c r="G17" s="55">
-        <v>116</v>
-      </c>
-      <c r="H17" s="40">
-        <v>0.21</v>
-      </c>
-      <c r="I17" s="27">
-        <v>2356</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="50"/>
-      <c r="E18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="49">
-        <v>0</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="51">
-        <v>355</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0.19</v>
-      </c>
-      <c r="G19" s="51">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="I19" s="27">
-        <v>1898</v>
-      </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="50"/>
-      <c r="E20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="49">
-        <v>0</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0.17</v>
-      </c>
-      <c r="E21" s="51">
-        <v>0</v>
-      </c>
-      <c r="F21" s="39">
-        <v>0.34</v>
-      </c>
-      <c r="G21" s="51">
-        <v>354</v>
-      </c>
-      <c r="H21" s="39">
-        <v>0.13</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2107</v>
-      </c>
-      <c r="J21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="26">
-        <v>2228</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26">
-        <v>1509</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26">
-        <v>2624</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="41">
-        <v>6361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="O24" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="P24" s="31">
-        <v>1613284.34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O25" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P25" s="31">
-        <v>14614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="29">
-        <v>14614</v>
-      </c>
-      <c r="O26" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="P26" s="31">
-        <v>2731.7099999999991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="53"/>
-      <c r="K30" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="54">
-        <v>470</v>
-      </c>
-      <c r="D31" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="E31" s="55">
-        <v>114</v>
-      </c>
-      <c r="F31" s="40">
-        <v>0.39</v>
-      </c>
-      <c r="G31" s="55">
-        <v>116</v>
-      </c>
-      <c r="H31" s="40">
-        <v>0.21</v>
-      </c>
-      <c r="I31" s="27">
-        <v>2356</v>
-      </c>
-      <c r="J31" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="K31" s="57">
-        <v>5</v>
-      </c>
-      <c r="L31" s="57">
-        <v>5</v>
-      </c>
-      <c r="M31" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="60"/>
-      <c r="C32" s="50"/>
-      <c r="E32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="49">
-        <v>0</v>
-      </c>
-      <c r="D33" s="39">
-        <v>0.21</v>
-      </c>
-      <c r="E33" s="51">
-        <v>355</v>
-      </c>
-      <c r="F33" s="39">
-        <v>0.19</v>
-      </c>
-      <c r="G33" s="51">
-        <v>0</v>
-      </c>
-      <c r="H33" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="I33" s="27">
-        <v>1898</v>
-      </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="57">
-        <v>7</v>
-      </c>
-      <c r="L33" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="60"/>
-      <c r="C34" s="50"/>
-      <c r="E34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="49">
-        <v>0</v>
-      </c>
-      <c r="D35" s="39">
-        <v>0.17</v>
-      </c>
-      <c r="E35" s="51">
-        <v>0</v>
-      </c>
-      <c r="F35" s="39">
-        <v>0.34</v>
-      </c>
-      <c r="G35" s="51">
-        <v>354</v>
-      </c>
-      <c r="H35" s="39">
-        <v>0.13</v>
-      </c>
-      <c r="I35" s="27">
-        <v>2107</v>
-      </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="57">
-        <v>13</v>
-      </c>
-      <c r="L35" s="57">
-        <v>13</v>
-      </c>
-      <c r="M35" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="60"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="26">
-        <v>2228</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26">
-        <v>1509</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26">
-        <v>2624</v>
-      </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="41">
-        <v>6361</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="62">
-        <v>1</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64">
-        <v>18</v>
-      </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="64">
-        <v>3</v>
-      </c>
-      <c r="H39" s="65"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="59"/>
-      <c r="C40" s="62">
-        <v>5</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64">
-        <v>4</v>
-      </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="64">
-        <v>3</v>
-      </c>
-      <c r="H40" s="65"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="29">
-        <v>14614</v>
-      </c>
+      <c r="C43" s="72">
+        <f>(C31*D31)+(C33*D33)+(C35*D35)+(E31*F31)+(E33*F33)+(E35*F35)+(G31*H31)+(G33*H33)+(G35*H35)</f>
+        <v>1956</v>
+      </c>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
+      <c r="V43" s="73"/>
+      <c r="W43" s="73"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="73"/>
+      <c r="W44" s="73"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="73"/>
+      <c r="AI45" s="73"/>
+      <c r="AJ45" s="73"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="73"/>
+      <c r="W46" s="73"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="73"/>
+      <c r="AC46" s="73"/>
+      <c r="AD46" s="73"/>
+      <c r="AE46" s="73"/>
+      <c r="AF46" s="73"/>
+      <c r="AG46" s="73"/>
+      <c r="AH46" s="73"/>
+      <c r="AI46" s="73"/>
+      <c r="AJ46" s="73"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="73"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="73"/>
+      <c r="AC47" s="73"/>
+      <c r="AD47" s="73"/>
+      <c r="AE47" s="73"/>
+      <c r="AF47" s="73"/>
+      <c r="AG47" s="73"/>
+      <c r="AH47" s="73"/>
+      <c r="AI47" s="73"/>
+      <c r="AJ47" s="73"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="73"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="73"/>
+      <c r="W48" s="73"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+      <c r="AJ48" s="73"/>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="73"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="73"/>
+      <c r="AC49" s="73"/>
+      <c r="AD49" s="73"/>
+      <c r="AE49" s="73"/>
+      <c r="AF49" s="73"/>
+      <c r="AG49" s="73"/>
+      <c r="AH49" s="73"/>
+      <c r="AI49" s="73"/>
+      <c r="AJ49" s="73"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="73"/>
+      <c r="W50" s="73"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="73"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+      <c r="AJ50" s="73"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="73"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="73"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="73"/>
+      <c r="AD51" s="73"/>
+      <c r="AE51" s="73"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
+      <c r="AI51" s="73"/>
+      <c r="AJ51" s="73"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="73"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="73"/>
+      <c r="W52" s="73"/>
+      <c r="X52" s="73"/>
+      <c r="Y52" s="73"/>
+      <c r="Z52" s="73"/>
+      <c r="AA52" s="73"/>
+      <c r="AB52" s="73"/>
+      <c r="AC52" s="73"/>
+      <c r="AD52" s="73"/>
+      <c r="AE52" s="73"/>
+      <c r="AF52" s="73"/>
+      <c r="AG52" s="73"/>
+      <c r="AH52" s="73"/>
+      <c r="AI52" s="73"/>
+      <c r="AJ52" s="73"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73"/>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
+      <c r="Z53" s="73"/>
+      <c r="AA53" s="73"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="73"/>
+      <c r="AD53" s="73"/>
+      <c r="AE53" s="73"/>
+      <c r="AF53" s="73"/>
+      <c r="AG53" s="73"/>
+      <c r="AH53" s="73"/>
+      <c r="AI53" s="73"/>
+      <c r="AJ53" s="73"/>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" s="73"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="73"/>
+      <c r="W54" s="73"/>
+      <c r="X54" s="73"/>
+      <c r="Y54" s="73"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="73"/>
+      <c r="AC54" s="73"/>
+      <c r="AD54" s="73"/>
+      <c r="AE54" s="73"/>
+      <c r="AF54" s="73"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73"/>
+      <c r="AI54" s="73"/>
+      <c r="AJ54" s="73"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="73"/>
+      <c r="W55" s="73"/>
+      <c r="X55" s="73"/>
+      <c r="Y55" s="73"/>
+      <c r="Z55" s="73"/>
+      <c r="AA55" s="73"/>
+      <c r="AB55" s="73"/>
+      <c r="AC55" s="73"/>
+      <c r="AD55" s="73"/>
+      <c r="AE55" s="73"/>
+      <c r="AF55" s="73"/>
+      <c r="AG55" s="73"/>
+      <c r="AH55" s="73"/>
+      <c r="AI55" s="73"/>
+      <c r="AJ55" s="73"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="73"/>
+      <c r="W56" s="73"/>
+      <c r="X56" s="73"/>
+      <c r="Y56" s="73"/>
+      <c r="Z56" s="73"/>
+      <c r="AA56" s="73"/>
+      <c r="AB56" s="73"/>
+      <c r="AC56" s="73"/>
+      <c r="AD56" s="73"/>
+      <c r="AE56" s="73"/>
+      <c r="AF56" s="73"/>
+      <c r="AG56" s="73"/>
+      <c r="AH56" s="73"/>
+      <c r="AI56" s="73"/>
+      <c r="AJ56" s="73"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
+      <c r="X57" s="73"/>
+      <c r="Y57" s="73"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="73"/>
+      <c r="AC57" s="73"/>
+      <c r="AD57" s="73"/>
+      <c r="AE57" s="73"/>
+      <c r="AF57" s="73"/>
+      <c r="AG57" s="73"/>
+      <c r="AH57" s="73"/>
+      <c r="AI57" s="73"/>
+      <c r="AJ57" s="73"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="73"/>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="73"/>
+      <c r="W58" s="73"/>
+      <c r="X58" s="73"/>
+      <c r="Y58" s="73"/>
+      <c r="Z58" s="73"/>
+      <c r="AA58" s="73"/>
+      <c r="AB58" s="73"/>
+      <c r="AC58" s="73"/>
+      <c r="AD58" s="73"/>
+      <c r="AE58" s="73"/>
+      <c r="AF58" s="73"/>
+      <c r="AG58" s="73"/>
+      <c r="AH58" s="73"/>
+      <c r="AI58" s="73"/>
+      <c r="AJ58" s="73"/>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="73"/>
+      <c r="K59" s="73"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="73"/>
+      <c r="W59" s="73"/>
+      <c r="X59" s="73"/>
+      <c r="Y59" s="73"/>
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="73"/>
+      <c r="AB59" s="73"/>
+      <c r="AC59" s="73"/>
+      <c r="AD59" s="73"/>
+      <c r="AE59" s="73"/>
+      <c r="AF59" s="73"/>
+      <c r="AG59" s="73"/>
+      <c r="AH59" s="73"/>
+      <c r="AI59" s="73"/>
+      <c r="AJ59" s="73"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="73"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="73"/>
+      <c r="W60" s="73"/>
+      <c r="X60" s="73"/>
+      <c r="Y60" s="73"/>
+      <c r="Z60" s="73"/>
+      <c r="AA60" s="73"/>
+      <c r="AB60" s="73"/>
+      <c r="AC60" s="73"/>
+      <c r="AD60" s="73"/>
+      <c r="AE60" s="73"/>
+      <c r="AF60" s="73"/>
+      <c r="AG60" s="73"/>
+      <c r="AH60" s="73"/>
+      <c r="AI60" s="73"/>
+      <c r="AJ60" s="73"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="73"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73"/>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
+      <c r="Z61" s="73"/>
+      <c r="AA61" s="73"/>
+      <c r="AB61" s="73"/>
+      <c r="AC61" s="73"/>
+      <c r="AD61" s="73"/>
+      <c r="AE61" s="73"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="73"/>
+      <c r="AH61" s="73"/>
+      <c r="AI61" s="73"/>
+      <c r="AJ61" s="73"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="73"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="73"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="73"/>
+      <c r="AA62" s="73"/>
+      <c r="AB62" s="73"/>
+      <c r="AC62" s="73"/>
+      <c r="AD62" s="73"/>
+      <c r="AE62" s="73"/>
+      <c r="AF62" s="73"/>
+      <c r="AG62" s="73"/>
+      <c r="AH62" s="73"/>
+      <c r="AI62" s="73"/>
+      <c r="AJ62" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="74">
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -3274,58 +5519,6 @@
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="M33:M34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3337,33 +5530,33 @@
   <dimension ref="B2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E3" s="1">
         <f>(C7*$C$28)+(D7*$D$28)+(E7*$E$28)+(F7*$F$28)+(G7*$G$28)+(H7*$H$28)+(I7*$I$28)+(J7*$J$28)</f>
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -3431,10 +5624,10 @@
       </c>
       <c r="K7" s="10">
         <f>(C7*$C$28)+(D7*$D$28)+(E7*$E$28)+(F7*$F$28)+(G7*$G$28)+(H7*$H$28)+(I7*$I$28)+(J7*$J$28)</f>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -3467,10 +5660,10 @@
       </c>
       <c r="K8" s="10">
         <f t="shared" ref="K8:K17" si="0">(C8*$C$28)+(D8*$D$28)+(E8*$E$28)+(F8*$F$28)+(G8*$G$28)+(H8*$H$28)+(I8*$I$28)+(J8*$J$28)</f>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -3503,10 +5696,10 @@
       </c>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="10">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -3539,7 +5732,7 @@
       </c>
       <c r="K10" s="10">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1999.9999999999998</v>
       </c>
       <c r="L10" s="10">
         <v>2000</v>
@@ -3575,7 +5768,7 @@
       </c>
       <c r="K11" s="10">
         <f t="shared" si="0"/>
-        <v>1230.2707958864955</v>
+        <v>1079.5454545454545</v>
       </c>
       <c r="L11" s="10">
         <v>2000</v>
@@ -3611,7 +5804,7 @@
       </c>
       <c r="K12" s="10">
         <f t="shared" si="0"/>
-        <v>495.87765565606867</v>
+        <v>818.18181818181824</v>
       </c>
       <c r="L12" s="10">
         <v>2000</v>
@@ -3647,7 +5840,7 @@
       </c>
       <c r="K13" s="10">
         <f t="shared" si="0"/>
-        <v>1452.2969030851284</v>
+        <v>1488.6363636363635</v>
       </c>
       <c r="L13" s="10">
         <v>2000</v>
@@ -3719,10 +5912,10 @@
       </c>
       <c r="K15" s="10">
         <f t="shared" si="0"/>
-        <v>6844.5236762235909</v>
+        <v>7000</v>
       </c>
       <c r="L15" s="10">
-        <v>10000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3755,10 +5948,10 @@
       </c>
       <c r="K16" s="10">
         <f t="shared" si="0"/>
-        <v>10000000</v>
+        <v>4800000</v>
       </c>
       <c r="L16" s="10">
-        <v>10000000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -3766,49 +5959,61 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>653.5</v>
+        <v>217.83</v>
       </c>
       <c r="D17" s="2">
-        <v>801.9</v>
+        <v>267.3</v>
       </c>
       <c r="E17" s="2">
-        <v>950.2</v>
+        <v>316.73</v>
       </c>
       <c r="F17" s="2">
-        <v>726.8</v>
+        <v>242.27</v>
       </c>
       <c r="G17" s="2">
-        <v>1208.9000000000001</v>
+        <v>402.97</v>
       </c>
       <c r="H17" s="2">
-        <v>1354.6</v>
+        <v>451.53</v>
       </c>
       <c r="I17" s="2">
-        <v>1255.4000000000001</v>
+        <v>418.47</v>
       </c>
       <c r="J17" s="2">
-        <v>2506.9</v>
+        <v>835.63</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="0"/>
-        <v>9480000</v>
+        <v>1221172.6136363638</v>
       </c>
       <c r="L17" s="2">
-        <v>9480000</v>
-      </c>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="54"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
@@ -3839,45 +6044,45 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="8">
-        <v>117.9</v>
+        <v>393</v>
       </c>
       <c r="D22" s="9">
-        <v>144.9</v>
+        <v>483</v>
       </c>
       <c r="E22" s="9">
-        <v>170.9</v>
+        <v>569.66999999999996</v>
       </c>
       <c r="F22" s="9">
-        <v>130.9</v>
+        <v>436.33</v>
       </c>
       <c r="G22" s="9">
-        <v>217.9</v>
+        <v>796.33</v>
       </c>
       <c r="H22" s="9">
-        <v>243.9</v>
+        <v>746.33</v>
       </c>
       <c r="I22" s="9">
-        <v>225.9</v>
+        <v>929.67</v>
       </c>
       <c r="J22" s="9">
-        <v>389.9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>1376.33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24"/>
@@ -3902,17 +6107,17 @@
       <c r="J25"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -3948,46 +6153,49 @@
         <v>24</v>
       </c>
       <c r="C28" s="12">
-        <v>1230.2707958864955</v>
+        <v>465.90909090909088</v>
       </c>
       <c r="D28" s="13">
-        <v>39.458408227008931</v>
+        <v>647.72727272727275</v>
       </c>
       <c r="E28" s="13">
-        <v>0</v>
+        <v>306.81818181818181</v>
       </c>
       <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>91.283849485811942</v>
+        <v>34.090909090909086</v>
       </c>
       <c r="H28" s="13">
-        <v>3471.7319346632494</v>
+        <v>0</v>
       </c>
       <c r="I28" s="13">
         <v>0</v>
       </c>
       <c r="J28" s="13">
-        <v>1528.2680653367509</v>
-      </c>
-      <c r="K28" s="38"/>
+        <v>1000</v>
+      </c>
+      <c r="K28" s="32">
+        <f>SUM(C28:J28)</f>
+        <v>2454.545454545454</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="51">
         <f>(C28*C22)+(D28*D22)+(E28*E22)+(F28*F22)+(G28*G22)+(H28*H22)+(I28*I22)+(J28*J22)</f>
-        <v>1613284.3385292357</v>
-      </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+        <v>2074217.2727272727</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
